--- a/Code/Results/Cases/Case_2_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.682513188000144</v>
+        <v>2.682513187999973</v>
       </c>
       <c r="C2">
-        <v>0.5447445711628234</v>
+        <v>0.544744571162795</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01857241516839814</v>
+        <v>0.01857241516839991</v>
       </c>
       <c r="F2">
-        <v>1.861795135022049</v>
+        <v>1.861795135022035</v>
       </c>
       <c r="G2">
-        <v>1.834316798625295</v>
+        <v>1.834316798625309</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1471598798016629</v>
+        <v>0.1471598798016736</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0942219514656486</v>
+        <v>0.09422195146563794</v>
       </c>
       <c r="L2">
-        <v>0.5940969547162283</v>
+        <v>0.594096954716214</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.311295376609792</v>
+        <v>2.311295376609621</v>
       </c>
       <c r="C3">
-        <v>0.472094808184778</v>
+        <v>0.4720948081850054</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01667020364480543</v>
+        <v>0.01667020364479654</v>
       </c>
       <c r="F3">
-        <v>1.626585515742818</v>
+        <v>1.626585515742832</v>
       </c>
       <c r="G3">
-        <v>1.640551859497549</v>
+        <v>1.640551859497535</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1467120213223296</v>
+        <v>0.1467120213223172</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.08142515035845932</v>
+        <v>0.08142515035846287</v>
       </c>
       <c r="L3">
-        <v>0.5123786332446372</v>
+        <v>0.512378633244623</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.086831374044493</v>
+        <v>2.08683137404455</v>
       </c>
       <c r="C4">
-        <v>0.4280714585700309</v>
+        <v>0.4280714585701446</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01551849855232845</v>
+        <v>0.01551849855234266</v>
       </c>
       <c r="F4">
         <v>1.485518367901705</v>
       </c>
       <c r="G4">
-        <v>1.525837329950804</v>
+        <v>1.525837329950789</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1467097669401252</v>
+        <v>0.1467097669401234</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0736550888959755</v>
+        <v>0.07365508889598971</v>
       </c>
       <c r="L4">
-        <v>0.4628988859248793</v>
+        <v>0.4628988859248864</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.996097588866974</v>
+        <v>1.99609758886686</v>
       </c>
       <c r="C5">
         <v>0.4102503536180109</v>
@@ -535,25 +535,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01505294615956032</v>
+        <v>0.01505294615953368</v>
       </c>
       <c r="F5">
         <v>1.428775024297593</v>
       </c>
       <c r="G5">
-        <v>1.480041165688618</v>
+        <v>1.480041165688633</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1467713629605427</v>
+        <v>0.1467713629605409</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.07050735674032538</v>
+        <v>0.07050735674034669</v>
       </c>
       <c r="L5">
         <v>0.4428836461129251</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.981072140649673</v>
+        <v>1.981072140649729</v>
       </c>
       <c r="C6">
-        <v>0.4072975766970899</v>
+        <v>0.4072975766971183</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01497586101945458</v>
+        <v>0.01497586101944748</v>
       </c>
       <c r="F6">
-        <v>1.419394909863854</v>
+        <v>1.419394909863811</v>
       </c>
       <c r="G6">
-        <v>1.472490876191884</v>
+        <v>1.47249087619187</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1467852007705908</v>
+        <v>0.1467852007706192</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.06998571208253068</v>
+        <v>0.06998571208250937</v>
       </c>
       <c r="L6">
         <v>0.4395683417737146</v>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.085604890432307</v>
+        <v>2.085604890432364</v>
       </c>
       <c r="C7">
         <v>0.4278306711566984</v>
@@ -611,25 +611,25 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01551220505140805</v>
+        <v>0.01551220505140094</v>
       </c>
       <c r="F7">
         <v>1.484750227045211</v>
       </c>
       <c r="G7">
-        <v>1.525216007301736</v>
+        <v>1.525216007301751</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.146710352101076</v>
+        <v>0.1467103521011044</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.07361256621072343</v>
+        <v>0.07361256621071988</v>
       </c>
       <c r="L7">
         <v>0.4626283871574728</v>
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.553713195295074</v>
+        <v>2.553713195295302</v>
       </c>
       <c r="C8">
-        <v>0.5195559597459862</v>
+        <v>0.5195559597462136</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01791296102963358</v>
+        <v>0.01791296102959272</v>
       </c>
       <c r="F8">
-        <v>1.779935959927357</v>
+        <v>1.779935959927371</v>
       </c>
       <c r="G8">
-        <v>1.766547424596752</v>
+        <v>1.766547424596737</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1469450023312415</v>
+        <v>0.146945002331254</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.08978943165397268</v>
+        <v>0.08978943165396203</v>
       </c>
       <c r="L8">
-        <v>0.5657591986575881</v>
+        <v>0.5657591986575952</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.505980377461015</v>
+        <v>3.505980377460901</v>
       </c>
       <c r="C9">
-        <v>0.7054944636925313</v>
+        <v>0.705494463692105</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02276564223118349</v>
+        <v>0.02276564223124744</v>
       </c>
       <c r="F9">
-        <v>2.390414089893866</v>
+        <v>2.390414089893781</v>
       </c>
       <c r="G9">
         <v>2.279610602753465</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1498794754335577</v>
+        <v>0.1498794754335293</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1223701799968744</v>
+        <v>0.122370179996846</v>
       </c>
       <c r="L9">
-        <v>0.774871998517817</v>
+        <v>0.7748719985178099</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.237361517373415</v>
+        <v>4.237361517373472</v>
       </c>
       <c r="C10">
-        <v>0.8480962753944539</v>
+        <v>0.8480962753947097</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02644406190674964</v>
+        <v>0.02644406190670878</v>
       </c>
       <c r="F10">
         <v>2.866064697803466</v>
       </c>
       <c r="G10">
-        <v>2.690349496324373</v>
+        <v>2.690349496324387</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.1470901443716564</v>
+        <v>0.1470901443716848</v>
       </c>
       <c r="L10">
-        <v>0.9348415687466058</v>
+        <v>0.9348415687465916</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.579836638055667</v>
+        <v>4.579836638055781</v>
       </c>
       <c r="C11">
-        <v>0.91488248217658</v>
+        <v>0.9148824821765515</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02814844089522595</v>
+        <v>0.02814844089526147</v>
       </c>
       <c r="F11">
-        <v>3.090372773444216</v>
+        <v>3.090372773444187</v>
       </c>
       <c r="G11">
         <v>2.887040473569385</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1565108500708092</v>
+        <v>0.1565108500708199</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.1585726833275807</v>
+        <v>0.1585726833275594</v>
       </c>
       <c r="L11">
         <v>1.009552566222801</v>
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.711207728923512</v>
+        <v>4.711207728923682</v>
       </c>
       <c r="C12">
-        <v>0.9405088189118658</v>
+        <v>0.9405088189120931</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.02879891835970483</v>
+        <v>0.02879891835967996</v>
       </c>
       <c r="F12">
-        <v>3.176649245189168</v>
+        <v>3.176649245189225</v>
       </c>
       <c r="G12">
-        <v>2.963182754995472</v>
+        <v>2.963182754995515</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1575408229425612</v>
+        <v>0.1575408229425577</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.1629613275178237</v>
+        <v>0.1629613275178485</v>
       </c>
       <c r="L12">
-        <v>1.038177325819134</v>
+        <v>1.038177325819156</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,31 +833,31 @@
         <v>4.682834856873228</v>
       </c>
       <c r="C13">
-        <v>0.9349737268665024</v>
+        <v>0.9349737268664455</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.02865859062361054</v>
+        <v>0.02865859062360876</v>
       </c>
       <c r="F13">
-        <v>3.158005250159164</v>
+        <v>3.158005250159135</v>
       </c>
       <c r="G13">
-        <v>2.94670605532697</v>
+        <v>2.946706055326985</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.157314488457839</v>
+        <v>0.1573144884578426</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.1620142454147135</v>
+        <v>0.1620142454146709</v>
       </c>
       <c r="L13">
         <v>1.031996695804594</v>
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.590609134797035</v>
+        <v>4.590609134796978</v>
       </c>
       <c r="C14">
-        <v>0.9169836653346977</v>
+        <v>0.9169836653347261</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.02820185079825421</v>
+        <v>0.02820185079828796</v>
       </c>
       <c r="F14">
         <v>3.097442803177955</v>
       </c>
       <c r="G14">
-        <v>2.893269953393656</v>
+        <v>2.893269953393641</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1565935765455428</v>
+        <v>0.1565935765455286</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.1589328896992264</v>
+        <v>0.1589328896992193</v>
       </c>
       <c r="L14">
-        <v>1.011900522398847</v>
+        <v>1.011900522398832</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>4.534346412580305</v>
       </c>
       <c r="C15">
-        <v>0.9060099252394593</v>
+        <v>0.9060099252396867</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.02792276346390743</v>
+        <v>0.02792276346387368</v>
       </c>
       <c r="F15">
         <v>3.06052677832821</v>
       </c>
       <c r="G15">
-        <v>2.860762804028909</v>
+        <v>2.860762804028923</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1561649400490097</v>
+        <v>0.1561649400490026</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.1570509409245773</v>
+        <v>0.1570509409245702</v>
       </c>
       <c r="L15">
-        <v>0.9996361927434947</v>
+        <v>0.9996361927434876</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.215199385269159</v>
+        <v>4.215199385269216</v>
       </c>
       <c r="C16">
-        <v>0.8437751388787831</v>
+        <v>0.8437751388790105</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0263333511088284</v>
+        <v>0.02633335110882307</v>
       </c>
       <c r="F16">
-        <v>2.851581346352503</v>
+        <v>2.851581346352532</v>
       </c>
       <c r="G16">
-        <v>2.677713425130051</v>
+        <v>2.677713425130094</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1538957553343181</v>
+        <v>0.1538957553342826</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.1463450314982069</v>
+        <v>0.1463450314981891</v>
       </c>
       <c r="L16">
         <v>0.9300025387014799</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.022100108853351</v>
+        <v>4.022100108853408</v>
       </c>
       <c r="C17">
-        <v>0.8061268842394611</v>
+        <v>0.8061268842394895</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02536665370584856</v>
+        <v>0.02536665370585567</v>
       </c>
       <c r="F17">
         <v>2.725562535577126</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1526592164763265</v>
+        <v>0.1526592164763301</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.1398423373487532</v>
+        <v>0.1398423373487461</v>
       </c>
       <c r="L17">
-        <v>0.88781773065012</v>
+        <v>0.8878177306501271</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>3.911934817648898</v>
       </c>
       <c r="C18">
-        <v>0.7846488198277086</v>
+        <v>0.7846488198279644</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02481351691654154</v>
+        <v>0.02481351691659306</v>
       </c>
       <c r="F18">
-        <v>2.653813341475256</v>
+        <v>2.653813341475228</v>
       </c>
       <c r="G18">
-        <v>2.505967312605478</v>
+        <v>2.505967312605492</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1520008795701813</v>
+        <v>0.1520008795701742</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0.1361240719602073</v>
       </c>
       <c r="L18">
-        <v>0.8637330742474703</v>
+        <v>0.8637330742474916</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.874781533481041</v>
+        <v>3.874781533481325</v>
       </c>
       <c r="C19">
-        <v>0.777405292603305</v>
+        <v>0.7774052926035324</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02462671222732737</v>
+        <v>0.0246267122272954</v>
       </c>
       <c r="F19">
-        <v>2.629640747727876</v>
+        <v>2.629640747727848</v>
       </c>
       <c r="G19">
-        <v>2.485078801647845</v>
+        <v>2.48507880164783</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.1348687146931056</v>
+        <v>0.1348687146930914</v>
       </c>
       <c r="L19">
         <v>0.8556076223285771</v>
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.042560789148922</v>
+        <v>4.042560789148979</v>
       </c>
       <c r="C20">
-        <v>0.8101159601723111</v>
+        <v>0.8101159601726238</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.02546925791405386</v>
+        <v>0.02546925791406274</v>
       </c>
       <c r="F20">
-        <v>2.738900208717752</v>
+        <v>2.738900208717666</v>
       </c>
       <c r="G20">
-        <v>2.579675002352843</v>
+        <v>2.579675002352829</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1527852824740421</v>
+        <v>0.1527852824740243</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.1405322491061582</v>
+        <v>0.1405322491061831</v>
       </c>
       <c r="L20">
-        <v>0.8922894877926453</v>
+        <v>0.8922894877926524</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.617649950639645</v>
+        <v>4.617649950639759</v>
       </c>
       <c r="C21">
-        <v>0.9222581387219293</v>
+        <v>0.9222581387219577</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.02833586366332774</v>
+        <v>0.02833586366337038</v>
       </c>
       <c r="F21">
-        <v>3.11519351640834</v>
+        <v>3.115193516408368</v>
       </c>
       <c r="G21">
         <v>2.908918260762235</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1568026006755865</v>
+        <v>0.1568026006756078</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.1598368060115263</v>
+        <v>0.1598368060115689</v>
       </c>
       <c r="L21">
-        <v>1.017793736599238</v>
+        <v>1.017793736599266</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.003476452240818</v>
+        <v>5.003476452240932</v>
       </c>
       <c r="C22">
-        <v>0.9975424661553802</v>
+        <v>0.9975424661551529</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03023922651497202</v>
+        <v>0.03023922651495958</v>
       </c>
       <c r="F22">
-        <v>3.36902047861355</v>
+        <v>3.369020478613578</v>
       </c>
       <c r="G22">
-        <v>3.133912738110354</v>
+        <v>3.133912738110382</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1599956054824183</v>
+        <v>0.1599956054824396</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.1726928214797923</v>
+        <v>0.1726928214798242</v>
       </c>
       <c r="L22">
-        <v>1.101792140519066</v>
+        <v>1.101792140519038</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.796537502796298</v>
+        <v>4.796537502796184</v>
       </c>
       <c r="C23">
-        <v>0.9571568953325311</v>
+        <v>0.957156895332588</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.02922041196983471</v>
+        <v>0.02922041196986136</v>
       </c>
       <c r="F23">
-        <v>3.232753815479811</v>
+        <v>3.232753815479782</v>
       </c>
       <c r="G23">
-        <v>3.012840289154653</v>
+        <v>3.012840289154667</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1582343408782201</v>
+        <v>0.1582343408782165</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.16580710567683</v>
+        <v>0.165807105676798</v>
       </c>
       <c r="L23">
         <v>1.056759871407017</v>
@@ -1251,16 +1251,16 @@
         <v>4.033307888359388</v>
       </c>
       <c r="C24">
-        <v>0.8083119850135745</v>
+        <v>0.8083119850136029</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02542286240257141</v>
+        <v>0.02542286240257674</v>
       </c>
       <c r="F24">
-        <v>2.732868078571158</v>
+        <v>2.73286807857113</v>
       </c>
       <c r="G24">
         <v>2.57444038135921</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1527281253111639</v>
+        <v>0.1527281253111958</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.1402202774869892</v>
+        <v>0.1402202774870034</v>
       </c>
       <c r="L24">
-        <v>0.8902672872575721</v>
+        <v>0.890267287257565</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.243658441228263</v>
+        <v>3.243658441228376</v>
       </c>
       <c r="C25">
-        <v>0.6543254403053425</v>
+        <v>0.6543254403050582</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.02143495832916464</v>
+        <v>0.02143495832918774</v>
       </c>
       <c r="F25">
-        <v>2.221121653691114</v>
+        <v>2.221121653691142</v>
       </c>
       <c r="G25">
-        <v>2.135639407062939</v>
+        <v>2.135639407062953</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1487734305105199</v>
+        <v>0.148773430510527</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1134392921169685</v>
+        <v>0.1134392921169756</v>
       </c>
       <c r="L25">
         <v>0.7173600973495269</v>

--- a/Code/Results/Cases/Case_2_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.682513187999973</v>
+        <v>2.682513188000144</v>
       </c>
       <c r="C2">
-        <v>0.544744571162795</v>
+        <v>0.5447445711628234</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01857241516839991</v>
+        <v>0.01857241516839814</v>
       </c>
       <c r="F2">
-        <v>1.861795135022035</v>
+        <v>1.861795135022049</v>
       </c>
       <c r="G2">
-        <v>1.834316798625309</v>
+        <v>1.834316798625295</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1471598798016736</v>
+        <v>0.1471598798016629</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.09422195146563794</v>
+        <v>0.0942219514656486</v>
       </c>
       <c r="L2">
-        <v>0.594096954716214</v>
+        <v>0.5940969547162283</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.311295376609621</v>
+        <v>2.311295376609792</v>
       </c>
       <c r="C3">
-        <v>0.4720948081850054</v>
+        <v>0.472094808184778</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01667020364479654</v>
+        <v>0.01667020364480543</v>
       </c>
       <c r="F3">
-        <v>1.626585515742832</v>
+        <v>1.626585515742818</v>
       </c>
       <c r="G3">
-        <v>1.640551859497535</v>
+        <v>1.640551859497549</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1467120213223172</v>
+        <v>0.1467120213223296</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.08142515035846287</v>
+        <v>0.08142515035845932</v>
       </c>
       <c r="L3">
-        <v>0.512378633244623</v>
+        <v>0.5123786332446372</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.08683137404455</v>
+        <v>2.086831374044493</v>
       </c>
       <c r="C4">
-        <v>0.4280714585701446</v>
+        <v>0.4280714585700309</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01551849855234266</v>
+        <v>0.01551849855232845</v>
       </c>
       <c r="F4">
         <v>1.485518367901705</v>
       </c>
       <c r="G4">
-        <v>1.525837329950789</v>
+        <v>1.525837329950804</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1467097669401234</v>
+        <v>0.1467097669401252</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.07365508889598971</v>
+        <v>0.0736550888959755</v>
       </c>
       <c r="L4">
-        <v>0.4628988859248864</v>
+        <v>0.4628988859248793</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.99609758886686</v>
+        <v>1.996097588866974</v>
       </c>
       <c r="C5">
         <v>0.4102503536180109</v>
@@ -535,25 +535,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01505294615953368</v>
+        <v>0.01505294615956032</v>
       </c>
       <c r="F5">
         <v>1.428775024297593</v>
       </c>
       <c r="G5">
-        <v>1.480041165688633</v>
+        <v>1.480041165688618</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1467713629605409</v>
+        <v>0.1467713629605427</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.07050735674034669</v>
+        <v>0.07050735674032538</v>
       </c>
       <c r="L5">
         <v>0.4428836461129251</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.981072140649729</v>
+        <v>1.981072140649673</v>
       </c>
       <c r="C6">
-        <v>0.4072975766971183</v>
+        <v>0.4072975766970899</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01497586101944748</v>
+        <v>0.01497586101945458</v>
       </c>
       <c r="F6">
-        <v>1.419394909863811</v>
+        <v>1.419394909863854</v>
       </c>
       <c r="G6">
-        <v>1.47249087619187</v>
+        <v>1.472490876191884</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1467852007706192</v>
+        <v>0.1467852007705908</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.06998571208250937</v>
+        <v>0.06998571208253068</v>
       </c>
       <c r="L6">
         <v>0.4395683417737146</v>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.085604890432364</v>
+        <v>2.085604890432307</v>
       </c>
       <c r="C7">
         <v>0.4278306711566984</v>
@@ -611,25 +611,25 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01551220505140094</v>
+        <v>0.01551220505140805</v>
       </c>
       <c r="F7">
         <v>1.484750227045211</v>
       </c>
       <c r="G7">
-        <v>1.525216007301751</v>
+        <v>1.525216007301736</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1467103521011044</v>
+        <v>0.146710352101076</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.07361256621071988</v>
+        <v>0.07361256621072343</v>
       </c>
       <c r="L7">
         <v>0.4626283871574728</v>
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.553713195295302</v>
+        <v>2.553713195295074</v>
       </c>
       <c r="C8">
-        <v>0.5195559597462136</v>
+        <v>0.5195559597459862</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01791296102959272</v>
+        <v>0.01791296102963358</v>
       </c>
       <c r="F8">
-        <v>1.779935959927371</v>
+        <v>1.779935959927357</v>
       </c>
       <c r="G8">
-        <v>1.766547424596737</v>
+        <v>1.766547424596752</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.146945002331254</v>
+        <v>0.1469450023312415</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.08978943165396203</v>
+        <v>0.08978943165397268</v>
       </c>
       <c r="L8">
-        <v>0.5657591986575952</v>
+        <v>0.5657591986575881</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.505980377460901</v>
+        <v>3.505980377461015</v>
       </c>
       <c r="C9">
-        <v>0.705494463692105</v>
+        <v>0.7054944636925313</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02276564223124744</v>
+        <v>0.02276564223118349</v>
       </c>
       <c r="F9">
-        <v>2.390414089893781</v>
+        <v>2.390414089893866</v>
       </c>
       <c r="G9">
         <v>2.279610602753465</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1498794754335293</v>
+        <v>0.1498794754335577</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.122370179996846</v>
+        <v>0.1223701799968744</v>
       </c>
       <c r="L9">
-        <v>0.7748719985178099</v>
+        <v>0.774871998517817</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.237361517373472</v>
+        <v>4.237361517373415</v>
       </c>
       <c r="C10">
-        <v>0.8480962753947097</v>
+        <v>0.8480962753944539</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02644406190670878</v>
+        <v>0.02644406190674964</v>
       </c>
       <c r="F10">
         <v>2.866064697803466</v>
       </c>
       <c r="G10">
-        <v>2.690349496324387</v>
+        <v>2.690349496324373</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.1470901443716848</v>
+        <v>0.1470901443716564</v>
       </c>
       <c r="L10">
-        <v>0.9348415687465916</v>
+        <v>0.9348415687466058</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.579836638055781</v>
+        <v>4.579836638055667</v>
       </c>
       <c r="C11">
-        <v>0.9148824821765515</v>
+        <v>0.91488248217658</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02814844089526147</v>
+        <v>0.02814844089522595</v>
       </c>
       <c r="F11">
-        <v>3.090372773444187</v>
+        <v>3.090372773444216</v>
       </c>
       <c r="G11">
         <v>2.887040473569385</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1565108500708199</v>
+        <v>0.1565108500708092</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.1585726833275594</v>
+        <v>0.1585726833275807</v>
       </c>
       <c r="L11">
         <v>1.009552566222801</v>
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.711207728923682</v>
+        <v>4.711207728923512</v>
       </c>
       <c r="C12">
-        <v>0.9405088189120931</v>
+        <v>0.9405088189118658</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.02879891835967996</v>
+        <v>0.02879891835970483</v>
       </c>
       <c r="F12">
-        <v>3.176649245189225</v>
+        <v>3.176649245189168</v>
       </c>
       <c r="G12">
-        <v>2.963182754995515</v>
+        <v>2.963182754995472</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1575408229425577</v>
+        <v>0.1575408229425612</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.1629613275178485</v>
+        <v>0.1629613275178237</v>
       </c>
       <c r="L12">
-        <v>1.038177325819156</v>
+        <v>1.038177325819134</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,31 +833,31 @@
         <v>4.682834856873228</v>
       </c>
       <c r="C13">
-        <v>0.9349737268664455</v>
+        <v>0.9349737268665024</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.02865859062360876</v>
+        <v>0.02865859062361054</v>
       </c>
       <c r="F13">
-        <v>3.158005250159135</v>
+        <v>3.158005250159164</v>
       </c>
       <c r="G13">
-        <v>2.946706055326985</v>
+        <v>2.94670605532697</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1573144884578426</v>
+        <v>0.157314488457839</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.1620142454146709</v>
+        <v>0.1620142454147135</v>
       </c>
       <c r="L13">
         <v>1.031996695804594</v>
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.590609134796978</v>
+        <v>4.590609134797035</v>
       </c>
       <c r="C14">
-        <v>0.9169836653347261</v>
+        <v>0.9169836653346977</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.02820185079828796</v>
+        <v>0.02820185079825421</v>
       </c>
       <c r="F14">
         <v>3.097442803177955</v>
       </c>
       <c r="G14">
-        <v>2.893269953393641</v>
+        <v>2.893269953393656</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1565935765455286</v>
+        <v>0.1565935765455428</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.1589328896992193</v>
+        <v>0.1589328896992264</v>
       </c>
       <c r="L14">
-        <v>1.011900522398832</v>
+        <v>1.011900522398847</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>4.534346412580305</v>
       </c>
       <c r="C15">
-        <v>0.9060099252396867</v>
+        <v>0.9060099252394593</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.02792276346387368</v>
+        <v>0.02792276346390743</v>
       </c>
       <c r="F15">
         <v>3.06052677832821</v>
       </c>
       <c r="G15">
-        <v>2.860762804028923</v>
+        <v>2.860762804028909</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1561649400490026</v>
+        <v>0.1561649400490097</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.1570509409245702</v>
+        <v>0.1570509409245773</v>
       </c>
       <c r="L15">
-        <v>0.9996361927434876</v>
+        <v>0.9996361927434947</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.215199385269216</v>
+        <v>4.215199385269159</v>
       </c>
       <c r="C16">
-        <v>0.8437751388790105</v>
+        <v>0.8437751388787831</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.02633335110882307</v>
+        <v>0.0263333511088284</v>
       </c>
       <c r="F16">
-        <v>2.851581346352532</v>
+        <v>2.851581346352503</v>
       </c>
       <c r="G16">
-        <v>2.677713425130094</v>
+        <v>2.677713425130051</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1538957553342826</v>
+        <v>0.1538957553343181</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.1463450314981891</v>
+        <v>0.1463450314982069</v>
       </c>
       <c r="L16">
         <v>0.9300025387014799</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.022100108853408</v>
+        <v>4.022100108853351</v>
       </c>
       <c r="C17">
-        <v>0.8061268842394895</v>
+        <v>0.8061268842394611</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02536665370585567</v>
+        <v>0.02536665370584856</v>
       </c>
       <c r="F17">
         <v>2.725562535577126</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1526592164763301</v>
+        <v>0.1526592164763265</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.1398423373487461</v>
+        <v>0.1398423373487532</v>
       </c>
       <c r="L17">
-        <v>0.8878177306501271</v>
+        <v>0.88781773065012</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>3.911934817648898</v>
       </c>
       <c r="C18">
-        <v>0.7846488198279644</v>
+        <v>0.7846488198277086</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02481351691659306</v>
+        <v>0.02481351691654154</v>
       </c>
       <c r="F18">
-        <v>2.653813341475228</v>
+        <v>2.653813341475256</v>
       </c>
       <c r="G18">
-        <v>2.505967312605492</v>
+        <v>2.505967312605478</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1520008795701742</v>
+        <v>0.1520008795701813</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0.1361240719602073</v>
       </c>
       <c r="L18">
-        <v>0.8637330742474916</v>
+        <v>0.8637330742474703</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.874781533481325</v>
+        <v>3.874781533481041</v>
       </c>
       <c r="C19">
-        <v>0.7774052926035324</v>
+        <v>0.777405292603305</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0246267122272954</v>
+        <v>0.02462671222732737</v>
       </c>
       <c r="F19">
-        <v>2.629640747727848</v>
+        <v>2.629640747727876</v>
       </c>
       <c r="G19">
-        <v>2.48507880164783</v>
+        <v>2.485078801647845</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.1348687146930914</v>
+        <v>0.1348687146931056</v>
       </c>
       <c r="L19">
         <v>0.8556076223285771</v>
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.042560789148979</v>
+        <v>4.042560789148922</v>
       </c>
       <c r="C20">
-        <v>0.8101159601726238</v>
+        <v>0.8101159601723111</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.02546925791406274</v>
+        <v>0.02546925791405386</v>
       </c>
       <c r="F20">
-        <v>2.738900208717666</v>
+        <v>2.738900208717752</v>
       </c>
       <c r="G20">
-        <v>2.579675002352829</v>
+        <v>2.579675002352843</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1527852824740243</v>
+        <v>0.1527852824740421</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.1405322491061831</v>
+        <v>0.1405322491061582</v>
       </c>
       <c r="L20">
-        <v>0.8922894877926524</v>
+        <v>0.8922894877926453</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.617649950639759</v>
+        <v>4.617649950639645</v>
       </c>
       <c r="C21">
-        <v>0.9222581387219577</v>
+        <v>0.9222581387219293</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.02833586366337038</v>
+        <v>0.02833586366332774</v>
       </c>
       <c r="F21">
-        <v>3.115193516408368</v>
+        <v>3.11519351640834</v>
       </c>
       <c r="G21">
         <v>2.908918260762235</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1568026006756078</v>
+        <v>0.1568026006755865</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.1598368060115689</v>
+        <v>0.1598368060115263</v>
       </c>
       <c r="L21">
-        <v>1.017793736599266</v>
+        <v>1.017793736599238</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.003476452240932</v>
+        <v>5.003476452240818</v>
       </c>
       <c r="C22">
-        <v>0.9975424661551529</v>
+        <v>0.9975424661553802</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03023922651495958</v>
+        <v>0.03023922651497202</v>
       </c>
       <c r="F22">
-        <v>3.369020478613578</v>
+        <v>3.36902047861355</v>
       </c>
       <c r="G22">
-        <v>3.133912738110382</v>
+        <v>3.133912738110354</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1599956054824396</v>
+        <v>0.1599956054824183</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.1726928214798242</v>
+        <v>0.1726928214797923</v>
       </c>
       <c r="L22">
-        <v>1.101792140519038</v>
+        <v>1.101792140519066</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.796537502796184</v>
+        <v>4.796537502796298</v>
       </c>
       <c r="C23">
-        <v>0.957156895332588</v>
+        <v>0.9571568953325311</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.02922041196986136</v>
+        <v>0.02922041196983471</v>
       </c>
       <c r="F23">
-        <v>3.232753815479782</v>
+        <v>3.232753815479811</v>
       </c>
       <c r="G23">
-        <v>3.012840289154667</v>
+        <v>3.012840289154653</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1582343408782165</v>
+        <v>0.1582343408782201</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.165807105676798</v>
+        <v>0.16580710567683</v>
       </c>
       <c r="L23">
         <v>1.056759871407017</v>
@@ -1251,16 +1251,16 @@
         <v>4.033307888359388</v>
       </c>
       <c r="C24">
-        <v>0.8083119850136029</v>
+        <v>0.8083119850135745</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02542286240257674</v>
+        <v>0.02542286240257141</v>
       </c>
       <c r="F24">
-        <v>2.73286807857113</v>
+        <v>2.732868078571158</v>
       </c>
       <c r="G24">
         <v>2.57444038135921</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1527281253111958</v>
+        <v>0.1527281253111639</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.1402202774870034</v>
+        <v>0.1402202774869892</v>
       </c>
       <c r="L24">
-        <v>0.890267287257565</v>
+        <v>0.8902672872575721</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.243658441228376</v>
+        <v>3.243658441228263</v>
       </c>
       <c r="C25">
-        <v>0.6543254403050582</v>
+        <v>0.6543254403053425</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.02143495832918774</v>
+        <v>0.02143495832916464</v>
       </c>
       <c r="F25">
-        <v>2.221121653691142</v>
+        <v>2.221121653691114</v>
       </c>
       <c r="G25">
-        <v>2.135639407062953</v>
+        <v>2.135639407062939</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.148773430510527</v>
+        <v>0.1487734305105199</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1134392921169756</v>
+        <v>0.1134392921169685</v>
       </c>
       <c r="L25">
         <v>0.7173600973495269</v>

--- a/Code/Results/Cases/Case_2_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.682513188000144</v>
+        <v>2.68211831710687</v>
       </c>
       <c r="C2">
-        <v>0.5447445711628234</v>
+        <v>0.5444700936094193</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01857241516839814</v>
+        <v>0.01868504456159314</v>
       </c>
       <c r="F2">
-        <v>1.861795135022049</v>
+        <v>1.859141698143873</v>
       </c>
       <c r="G2">
-        <v>1.834316798625295</v>
+        <v>0.5871721410046149</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.244185368537273</v>
       </c>
       <c r="I2">
-        <v>0.1471598798016629</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.146572108000111</v>
       </c>
       <c r="K2">
-        <v>0.0942219514656486</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5940969547162283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.0944276333031695</v>
+      </c>
+      <c r="M2">
+        <v>0.5944452407786827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.311295376609792</v>
+        <v>2.310997514493067</v>
       </c>
       <c r="C3">
-        <v>0.472094808184778</v>
+        <v>0.4718773646805232</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01667020364480543</v>
+        <v>0.01677084017799579</v>
       </c>
       <c r="F3">
-        <v>1.626585515742818</v>
+        <v>1.624264705816842</v>
       </c>
       <c r="G3">
-        <v>1.640551859497549</v>
+        <v>0.5198304507015195</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.118688072466014</v>
       </c>
       <c r="I3">
-        <v>0.1467120213223296</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1461824130938307</v>
       </c>
       <c r="K3">
-        <v>0.08142515035845932</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5123786332446372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.08160546639297905</v>
+      </c>
+      <c r="M3">
+        <v>0.5126906808543978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.086831374044493</v>
+        <v>2.086585205954066</v>
       </c>
       <c r="C4">
-        <v>0.4280714585700309</v>
+        <v>0.4278870448668499</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01551849855232845</v>
+        <v>0.01561185090304384</v>
       </c>
       <c r="F4">
-        <v>1.485518367901705</v>
+        <v>1.483397985397801</v>
       </c>
       <c r="G4">
-        <v>1.525837329950804</v>
+        <v>0.4798657396407151</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.044495547760221</v>
       </c>
       <c r="I4">
-        <v>0.1467097669401252</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1462150308738117</v>
       </c>
       <c r="K4">
-        <v>0.0736550888959755</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4628988859248793</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.07381985660537183</v>
+      </c>
+      <c r="M4">
+        <v>0.4631876093519409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.996097588866974</v>
+        <v>1.995870772048363</v>
       </c>
       <c r="C5">
-        <v>0.4102503536180109</v>
+        <v>0.4100789773026463</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01505294615956032</v>
+        <v>0.01514334815453822</v>
       </c>
       <c r="F5">
-        <v>1.428775024297593</v>
+        <v>1.426735543067196</v>
       </c>
       <c r="G5">
-        <v>1.480041165688618</v>
+        <v>0.4638871363806913</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.014902737421451</v>
       </c>
       <c r="I5">
-        <v>0.1467713629605427</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1462906611983055</v>
       </c>
       <c r="K5">
-        <v>0.07050735674032538</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4428836461129251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.07066579152300889</v>
+      </c>
+      <c r="M5">
+        <v>0.4431626250806673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.981072140649673</v>
+        <v>1.980848440683872</v>
       </c>
       <c r="C6">
-        <v>0.4072975766970899</v>
+        <v>0.4071283418130065</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01497586101945458</v>
+        <v>0.01506577414123811</v>
       </c>
       <c r="F6">
-        <v>1.419394909863854</v>
+        <v>1.417368820408043</v>
       </c>
       <c r="G6">
-        <v>1.472490876191884</v>
+        <v>0.4612513456836211</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.010025429329986</v>
       </c>
       <c r="I6">
-        <v>0.1467852007705908</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1463068196958606</v>
       </c>
       <c r="K6">
-        <v>0.06998571208253068</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4395683417737146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.07014309537860086</v>
+      </c>
+      <c r="M6">
+        <v>0.4398456890158684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.085604890432307</v>
+        <v>2.085358989934946</v>
       </c>
       <c r="C7">
-        <v>0.4278306711566984</v>
+        <v>0.4276464348947968</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01551220505140805</v>
+        <v>0.01560551754221606</v>
       </c>
       <c r="F7">
-        <v>1.484750227045211</v>
+        <v>1.48263093851341</v>
       </c>
       <c r="G7">
-        <v>1.525216007301736</v>
+        <v>0.4796490532025643</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.044093951539537</v>
       </c>
       <c r="I7">
-        <v>0.146710352101076</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.146215805976853</v>
       </c>
       <c r="K7">
-        <v>0.07361256621072343</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4626283871574728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.07377724850380574</v>
+      </c>
+      <c r="M7">
+        <v>0.4629169801006441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.553713195295074</v>
+        <v>2.553353575994549</v>
       </c>
       <c r="C8">
-        <v>0.5195559597459862</v>
+        <v>0.5193016101676164</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01791296102963358</v>
+        <v>0.01802143757370622</v>
       </c>
       <c r="F8">
-        <v>1.779935959927357</v>
+        <v>1.777398119692407</v>
       </c>
       <c r="G8">
-        <v>1.766547424596752</v>
+        <v>0.5636400698809751</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.200269970749062</v>
       </c>
       <c r="I8">
-        <v>0.1469450023312415</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.146377482005402</v>
       </c>
       <c r="K8">
-        <v>0.08978943165397268</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5657591986575881</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.08998635972545443</v>
+      </c>
+      <c r="M8">
+        <v>0.5660952321150603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.505980377461015</v>
+        <v>3.505321412421381</v>
       </c>
       <c r="C9">
-        <v>0.7054944636925313</v>
+        <v>0.7050827706264897</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02276564223118349</v>
+        <v>0.02290457934963896</v>
       </c>
       <c r="F9">
-        <v>2.390414089893866</v>
+        <v>2.387015743236205</v>
       </c>
       <c r="G9">
-        <v>2.279610602753465</v>
+        <v>0.7413619844734143</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.533214186916581</v>
       </c>
       <c r="I9">
-        <v>0.1498794754335577</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1491603843771401</v>
       </c>
       <c r="K9">
-        <v>0.1223701799968744</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.774871998517817</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.1226307196658993</v>
+      </c>
+      <c r="M9">
+        <v>0.7752909223606181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.237361517373415</v>
+        <v>4.23641289758433</v>
       </c>
       <c r="C10">
-        <v>0.8480962753944539</v>
+        <v>0.8475501335539377</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02644406190674964</v>
+        <v>0.02660595343934347</v>
       </c>
       <c r="F10">
-        <v>2.866064697803466</v>
+        <v>2.861994238349013</v>
       </c>
       <c r="G10">
-        <v>2.690349496324373</v>
+        <v>0.8830896434859312</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.800355364338245</v>
       </c>
       <c r="I10">
-        <v>0.1540443204697013</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1532057830263334</v>
       </c>
       <c r="K10">
-        <v>0.1470901443716564</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.9348415687466058</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.1473978985180082</v>
+      </c>
+      <c r="M10">
+        <v>0.9353124447153363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.579836638055667</v>
+        <v>4.578734530378313</v>
       </c>
       <c r="C11">
-        <v>0.91488248217658</v>
+        <v>0.914269184266459</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02814844089522595</v>
+        <v>0.02832092927309304</v>
       </c>
       <c r="F11">
-        <v>3.090372773444216</v>
+        <v>3.085983533618986</v>
       </c>
       <c r="G11">
-        <v>2.887040473569385</v>
+        <v>0.9508323164664461</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.928418505593726</v>
       </c>
       <c r="I11">
-        <v>0.1565108500708092</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1556154171584119</v>
       </c>
       <c r="K11">
-        <v>0.1585726833275807</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.009552566222801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.1589020780662409</v>
+      </c>
+      <c r="M11">
+        <v>1.010044324236141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.711207728923512</v>
+        <v>4.710043683529193</v>
       </c>
       <c r="C12">
-        <v>0.9405088189118658</v>
+        <v>0.9398690301648287</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.02879891835970483</v>
+        <v>0.02897544407736063</v>
       </c>
       <c r="F12">
-        <v>3.176649245189168</v>
+        <v>3.172136968329738</v>
       </c>
       <c r="G12">
-        <v>2.963182754995472</v>
+        <v>0.9770377822897416</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.978014086789642</v>
       </c>
       <c r="I12">
-        <v>0.1575408229425612</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1566233956601515</v>
       </c>
       <c r="K12">
-        <v>0.1629613275178237</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.038177325819134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.1632989451883375</v>
+      </c>
+      <c r="M12">
+        <v>1.038676508161977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.682834856873228</v>
+        <v>4.681684333129112</v>
       </c>
       <c r="C13">
-        <v>0.9349737268665024</v>
+        <v>0.9343396941461037</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.02865859062361054</v>
+        <v>0.02883424570097937</v>
       </c>
       <c r="F13">
-        <v>3.158005250159164</v>
+        <v>3.153519582856376</v>
       </c>
       <c r="G13">
-        <v>2.94670605532697</v>
+        <v>0.971367933121229</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.967281015356718</v>
       </c>
       <c r="I13">
-        <v>0.157314488457839</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1564018194967218</v>
       </c>
       <c r="K13">
-        <v>0.1620142454147135</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.031996695804594</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.1623500908031268</v>
+      </c>
+      <c r="M13">
+        <v>1.032494302289905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.590609134797035</v>
+        <v>4.589502012405035</v>
       </c>
       <c r="C14">
-        <v>0.9169836653346977</v>
+        <v>0.9163682105370583</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.02820185079825421</v>
+        <v>0.02837467082586365</v>
       </c>
       <c r="F14">
-        <v>3.097442803177955</v>
+        <v>3.093043490428784</v>
       </c>
       <c r="G14">
-        <v>2.893269953393656</v>
+        <v>0.9529766602561551</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.932475696082363</v>
       </c>
       <c r="I14">
-        <v>0.1565935765455428</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.155696343667131</v>
       </c>
       <c r="K14">
-        <v>0.1589328896992264</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.011900522398847</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.1592629603526028</v>
+      </c>
+      <c r="M14">
+        <v>1.012392901474684</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.534346412580305</v>
+        <v>4.533265354950515</v>
       </c>
       <c r="C15">
-        <v>0.9060099252394593</v>
+        <v>0.9054057053056965</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.02792276346390743</v>
+        <v>0.02809385020438704</v>
       </c>
       <c r="F15">
-        <v>3.06052677832821</v>
+        <v>3.056180043109322</v>
       </c>
       <c r="G15">
-        <v>2.860762804028909</v>
+        <v>0.9417861235748575</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.911304967633569</v>
       </c>
       <c r="I15">
-        <v>0.1561649400490097</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1552771010368517</v>
       </c>
       <c r="K15">
-        <v>0.1570509409245773</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.9996361927434947</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.1573774781890087</v>
+      </c>
+      <c r="M15">
+        <v>1.000125304007348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.215199385269159</v>
+        <v>4.214260303203957</v>
       </c>
       <c r="C16">
-        <v>0.8437751388787831</v>
+        <v>0.8432332491517798</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0263333511088284</v>
+        <v>0.0264945534245733</v>
       </c>
       <c r="F16">
-        <v>2.851581346352503</v>
+        <v>2.847531421316262</v>
       </c>
       <c r="G16">
-        <v>2.677713425130051</v>
+        <v>0.8787350870058788</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.792130914976525</v>
       </c>
       <c r="I16">
-        <v>0.1538957553343181</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1530608780310452</v>
       </c>
       <c r="K16">
-        <v>0.1463450314982069</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.9300025387014799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.1466513750537608</v>
+      </c>
+      <c r="M16">
+        <v>0.9304719875639336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.022100108853351</v>
+        <v>4.021242111038646</v>
       </c>
       <c r="C17">
-        <v>0.8061268842394611</v>
+        <v>0.8056215675415217</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02536665370584856</v>
+        <v>0.02552183353908788</v>
       </c>
       <c r="F17">
-        <v>2.725562535577126</v>
+        <v>2.721691062998644</v>
       </c>
       <c r="G17">
-        <v>2.568102577281124</v>
+        <v>0.8409479032084732</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.720803383196582</v>
       </c>
       <c r="I17">
-        <v>0.1526592164763265</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1518561206814049</v>
       </c>
       <c r="K17">
-        <v>0.1398423373487532</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.88781773065012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.1401363376752762</v>
+      </c>
+      <c r="M17">
+        <v>0.8882743561425173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.911934817648898</v>
+        <v>3.911121461452296</v>
       </c>
       <c r="C18">
-        <v>0.7846488198277086</v>
+        <v>0.7841639886488565</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02481351691654154</v>
+        <v>0.02496524720984361</v>
       </c>
       <c r="F18">
-        <v>2.653813341475256</v>
+        <v>2.650043314557422</v>
       </c>
       <c r="G18">
-        <v>2.505967312605478</v>
+        <v>0.8195159118947259</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.680382303070047</v>
       </c>
       <c r="I18">
-        <v>0.1520008795701813</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1512158284620106</v>
       </c>
       <c r="K18">
-        <v>0.1361240719602073</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.8637330742474703</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.1364109877892759</v>
+      </c>
+      <c r="M18">
+        <v>0.8641820713704362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.874781533481041</v>
+        <v>3.873982968227665</v>
       </c>
       <c r="C19">
-        <v>0.777405292603305</v>
+        <v>0.7769273083725352</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02462671222732737</v>
+        <v>0.02477727697354482</v>
       </c>
       <c r="F19">
-        <v>2.629640747727876</v>
+        <v>2.625904875550987</v>
       </c>
       <c r="G19">
-        <v>2.485078801647845</v>
+        <v>0.8123089871936173</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.666795748437224</v>
       </c>
       <c r="I19">
-        <v>0.1517866804426689</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1510077008072521</v>
       </c>
       <c r="K19">
-        <v>0.1348687146931056</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.8556076223285771</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.1351532342669408</v>
+      </c>
+      <c r="M19">
+        <v>0.8560539955779163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.042560789148922</v>
+        <v>4.041694370912523</v>
       </c>
       <c r="C20">
-        <v>0.8101159601723111</v>
+        <v>0.8096068084815329</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.02546925791405386</v>
+        <v>0.0256250773402531</v>
       </c>
       <c r="F20">
-        <v>2.738900208717752</v>
+        <v>2.735009866274765</v>
       </c>
       <c r="G20">
-        <v>2.579675002352843</v>
+        <v>0.844938577272643</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.728332655322646</v>
       </c>
       <c r="I20">
-        <v>0.1527852824740421</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1519788283684385</v>
       </c>
       <c r="K20">
-        <v>0.1405322491061582</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.8922894877926453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.140827561803853</v>
+      </c>
+      <c r="M20">
+        <v>0.8927475050823688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.617649950639645</v>
+        <v>4.616530189991749</v>
       </c>
       <c r="C21">
-        <v>0.9222581387219293</v>
+        <v>0.9216372576955791</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.02833586366332774</v>
+        <v>0.02850951572991711</v>
       </c>
       <c r="F21">
-        <v>3.11519351640834</v>
+        <v>3.110768906247102</v>
       </c>
       <c r="G21">
-        <v>2.908918260762235</v>
+        <v>0.9583629009860601</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.942667586501841</v>
       </c>
       <c r="I21">
-        <v>0.1568026006755865</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1559008467623748</v>
       </c>
       <c r="K21">
-        <v>0.1598368060115263</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.017793736599238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.1601685720434745</v>
+      </c>
+      <c r="M21">
+        <v>1.018287665005211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.003476452240818</v>
+        <v>5.002168447333929</v>
       </c>
       <c r="C22">
-        <v>0.9975424661553802</v>
+        <v>0.9968422601425573</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03023922651497202</v>
+        <v>0.03042467727686038</v>
       </c>
       <c r="F22">
-        <v>3.36902047861355</v>
+        <v>3.36423288570731</v>
       </c>
       <c r="G22">
-        <v>3.133912738110354</v>
+        <v>1.035762016819262</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.089257193173907</v>
       </c>
       <c r="I22">
-        <v>0.1599956054824183</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1590288995036495</v>
       </c>
       <c r="K22">
-        <v>0.1726928214797923</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.101792140519066</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.1730485779567843</v>
+      </c>
+      <c r="M22">
+        <v>1.102306665979519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.796537502796298</v>
+        <v>4.795332309824403</v>
       </c>
       <c r="C23">
-        <v>0.9571568953325311</v>
+        <v>0.9564996799087453</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.02922041196983471</v>
+        <v>0.02939955164147001</v>
       </c>
       <c r="F23">
-        <v>3.232753815479811</v>
+        <v>3.228161388368022</v>
       </c>
       <c r="G23">
-        <v>3.012840289154653</v>
+        <v>0.9941228392631558</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.010364406355137</v>
       </c>
       <c r="I23">
-        <v>0.1582343408782201</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1573025761645823</v>
       </c>
       <c r="K23">
-        <v>0.16580710567683</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.056759871407017</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.1661500412201669</v>
+      </c>
+      <c r="M23">
+        <v>1.057263701164061</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.033307888359388</v>
+        <v>4.032445283096251</v>
       </c>
       <c r="C24">
-        <v>0.8083119850135745</v>
+        <v>0.8078045687931308</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02542286240257141</v>
+        <v>0.02557839262890305</v>
       </c>
       <c r="F24">
-        <v>2.732868078571158</v>
+        <v>2.72898627073991</v>
       </c>
       <c r="G24">
-        <v>2.57444038135921</v>
+        <v>0.8431334889531001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.724926857738865</v>
       </c>
       <c r="I24">
-        <v>0.1527281253111639</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1519231901986267</v>
       </c>
       <c r="K24">
-        <v>0.1402202774869892</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.8902672872575721</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.1405149968253134</v>
+      </c>
+      <c r="M24">
+        <v>0.8907246761069558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.243658441228263</v>
+        <v>3.243090781407147</v>
       </c>
       <c r="C25">
-        <v>0.6543254403053425</v>
+        <v>0.653959066107916</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.02143495832916464</v>
+        <v>0.02156556393796372</v>
       </c>
       <c r="F25">
-        <v>2.221121653691114</v>
+        <v>2.217961817683815</v>
       </c>
       <c r="G25">
-        <v>2.135639407062939</v>
+        <v>0.6915816116397906</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.439687745361439</v>
       </c>
       <c r="I25">
-        <v>0.1487734305105199</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.148096525567702</v>
       </c>
       <c r="K25">
-        <v>0.1134392921169685</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.7173600973495269</v>
+        <v>0.1136825577899998</v>
+      </c>
+      <c r="M25">
+        <v>0.717757935807164</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.68211831710687</v>
+        <v>3.926962033800805</v>
       </c>
       <c r="C2">
-        <v>0.5444700936094193</v>
+        <v>0.5658026880728073</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01868504456159314</v>
+        <v>0.03381350935753602</v>
       </c>
       <c r="F2">
-        <v>1.859141698143873</v>
+        <v>1.97486840394059</v>
       </c>
       <c r="G2">
-        <v>0.5871721410046149</v>
+        <v>0.0008052543117964152</v>
       </c>
       <c r="H2">
-        <v>1.244185368537273</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.146572108000111</v>
+        <v>0.04462590633045593</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0944276333031695</v>
+        <v>0.3122979591621942</v>
       </c>
       <c r="M2">
-        <v>0.5944452407786827</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.885731130396664</v>
+      </c>
+      <c r="O2">
+        <v>1.37633149971316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.310997514493067</v>
+        <v>3.423200239589505</v>
       </c>
       <c r="C3">
-        <v>0.4718773646805232</v>
+        <v>0.4894952326871191</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01677084017799579</v>
+        <v>0.03325061383276662</v>
       </c>
       <c r="F3">
-        <v>1.624264705816842</v>
+        <v>1.829930280388083</v>
       </c>
       <c r="G3">
-        <v>0.5198304507015195</v>
+        <v>0.0008134010988435134</v>
       </c>
       <c r="H3">
-        <v>1.118688072466014</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1461824130938307</v>
+        <v>0.04743615371997301</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08160546639297905</v>
+        <v>0.2786967601877706</v>
       </c>
       <c r="M3">
-        <v>0.5126906808543978</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.9445158401795588</v>
+      </c>
+      <c r="O3">
+        <v>1.273248121447949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.086585205954066</v>
+        <v>3.118697604484851</v>
       </c>
       <c r="C4">
-        <v>0.4278870448668499</v>
+        <v>0.4432002096298504</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01561185090304384</v>
+        <v>0.03292368096267495</v>
       </c>
       <c r="F4">
-        <v>1.483397985397801</v>
+        <v>1.744934154462527</v>
       </c>
       <c r="G4">
-        <v>0.4798657396407151</v>
+        <v>0.0008185403130517693</v>
       </c>
       <c r="H4">
-        <v>1.044495547760221</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1462150308738117</v>
+        <v>0.04926954277858187</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.07381985660537183</v>
+        <v>0.258371332330114</v>
       </c>
       <c r="M4">
-        <v>0.4631876093519409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.9822555631609617</v>
+      </c>
+      <c r="O4">
+        <v>1.213300935583177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.995870772048363</v>
+        <v>2.995669838815616</v>
       </c>
       <c r="C5">
-        <v>0.4100789773026463</v>
+        <v>0.4244498061135289</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01514334815453822</v>
+        <v>0.03279482415706347</v>
       </c>
       <c r="F5">
-        <v>1.426735543067196</v>
+        <v>1.711221152977785</v>
       </c>
       <c r="G5">
-        <v>0.4638871363806913</v>
+        <v>0.0008206705055225274</v>
       </c>
       <c r="H5">
-        <v>1.014902737421451</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1462906611983055</v>
+        <v>0.0500423399964216</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.07066579152300889</v>
+        <v>0.2501581125599301</v>
       </c>
       <c r="M5">
-        <v>0.4431626250806673</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.9980323571920131</v>
+      </c>
+      <c r="O5">
+        <v>1.189640730372346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.980848440683872</v>
+        <v>2.975301012627597</v>
       </c>
       <c r="C6">
-        <v>0.4071283418130065</v>
+        <v>0.4213425785295897</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01506577414123811</v>
+        <v>0.03277368271671754</v>
       </c>
       <c r="F6">
-        <v>1.417368820408043</v>
+        <v>1.705676658287473</v>
       </c>
       <c r="G6">
-        <v>0.4612513456836211</v>
+        <v>0.0008210264324582494</v>
       </c>
       <c r="H6">
-        <v>1.010025429329986</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1463068196958606</v>
+        <v>0.05017217333336532</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.07014309537860086</v>
+        <v>0.2487983104455935</v>
       </c>
       <c r="M6">
-        <v>0.4398456890158684</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.000675642279546</v>
+      </c>
+      <c r="O6">
+        <v>1.185756385331374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.085358989934946</v>
+        <v>3.11703430828635</v>
       </c>
       <c r="C7">
-        <v>0.4276464348947968</v>
+        <v>0.44294690039942</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01560551754221606</v>
+        <v>0.03292192586229348</v>
       </c>
       <c r="F7">
-        <v>1.48263093851341</v>
+        <v>1.744475852439891</v>
       </c>
       <c r="G7">
-        <v>0.4796490532025643</v>
+        <v>0.0008185688942885214</v>
       </c>
       <c r="H7">
-        <v>1.044093951539537</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.146215805976853</v>
+        <v>0.04927986284766739</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.07377724850380574</v>
+        <v>0.2582602936509204</v>
       </c>
       <c r="M7">
-        <v>0.4629169801006441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.9824667453819202</v>
+      </c>
+      <c r="O7">
+        <v>1.212978825023072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.553353575994549</v>
+        <v>3.752172705158728</v>
       </c>
       <c r="C8">
-        <v>0.5193016101676164</v>
+        <v>0.5393602198805638</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01802143757370622</v>
+        <v>0.03361533418930041</v>
       </c>
       <c r="F8">
-        <v>1.777398119692407</v>
+        <v>1.924013273862187</v>
       </c>
       <c r="G8">
-        <v>0.5636400698809751</v>
+        <v>0.0008080357910623295</v>
       </c>
       <c r="H8">
-        <v>1.200269970749062</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.146377482005402</v>
+        <v>0.04557156902147419</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.08998635972545443</v>
+        <v>0.300644175758606</v>
       </c>
       <c r="M8">
-        <v>0.5660952321150603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.9056483334839314</v>
+      </c>
+      <c r="O8">
+        <v>1.340048138413252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.505321412421381</v>
+        <v>5.043325047607254</v>
       </c>
       <c r="C9">
-        <v>0.7050827706264897</v>
+        <v>0.7341177104009375</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02290457934963896</v>
+        <v>0.03514058204259651</v>
       </c>
       <c r="F9">
-        <v>2.387015743236205</v>
+        <v>2.311834057088589</v>
       </c>
       <c r="G9">
-        <v>0.7413619844734143</v>
+        <v>0.0007883956579461488</v>
       </c>
       <c r="H9">
-        <v>1.533214186916581</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1491603843771401</v>
+        <v>0.03922911696369802</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1226307196658993</v>
+        <v>0.3865522386344651</v>
       </c>
       <c r="M9">
-        <v>0.7752909223606181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.7688694715587374</v>
+      </c>
+      <c r="O9">
+        <v>1.619404418449747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.23641289758433</v>
+        <v>6.031449363809315</v>
       </c>
       <c r="C10">
-        <v>0.8475501335539377</v>
+        <v>0.8826601424117939</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02660595343934347</v>
+        <v>0.03639038970912889</v>
       </c>
       <c r="F10">
-        <v>2.861994238349013</v>
+        <v>2.624818116037176</v>
       </c>
       <c r="G10">
-        <v>0.8830896434859312</v>
+        <v>0.0007744732961507988</v>
       </c>
       <c r="H10">
-        <v>1.800355364338245</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1532057830263334</v>
+        <v>0.03525272006810809</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1473978985180082</v>
+        <v>0.4519411509588878</v>
       </c>
       <c r="M10">
-        <v>0.9353124447153363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.678072745384835</v>
+      </c>
+      <c r="O10">
+        <v>1.84867721443166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.578734530378313</v>
+        <v>6.492545173506585</v>
       </c>
       <c r="C11">
-        <v>0.914269184266459</v>
+        <v>0.9519340257629381</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02832092927309304</v>
+        <v>0.03699481546225059</v>
       </c>
       <c r="F11">
-        <v>3.085983533618986</v>
+        <v>2.774888657670772</v>
       </c>
       <c r="G11">
-        <v>0.9508323164664461</v>
+        <v>0.0007682214714124813</v>
       </c>
       <c r="H11">
-        <v>1.928418505593726</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1556154171584119</v>
+        <v>0.03362318931522879</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1589020780662409</v>
+        <v>0.4823257217073831</v>
       </c>
       <c r="M11">
-        <v>1.010044324236141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.6391923961976005</v>
+      </c>
+      <c r="O11">
+        <v>1.959642746812818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.710043683529193</v>
+        <v>6.669102493087962</v>
       </c>
       <c r="C12">
-        <v>0.9398690301648287</v>
+        <v>0.9784604075400125</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.02897544407736063</v>
+        <v>0.03722964753960145</v>
       </c>
       <c r="F12">
-        <v>3.172136968329738</v>
+        <v>2.832974620277298</v>
       </c>
       <c r="G12">
-        <v>0.9770377822897416</v>
+        <v>0.0007658631094684676</v>
       </c>
       <c r="H12">
-        <v>1.978014086789642</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1566233956601515</v>
+        <v>0.03303501032941014</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1632989451883375</v>
+        <v>0.4939369601783881</v>
       </c>
       <c r="M12">
-        <v>1.038676508161977</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.6248490837660619</v>
+      </c>
+      <c r="O12">
+        <v>2.002760135994649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.681684333129112</v>
+        <v>6.63098607192336</v>
       </c>
       <c r="C13">
-        <v>0.9343396941461037</v>
+        <v>0.9727335504127836</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.02883424570097937</v>
+        <v>0.03717879358374709</v>
       </c>
       <c r="F13">
-        <v>3.153519582856376</v>
+        <v>2.820406228052548</v>
       </c>
       <c r="G13">
-        <v>0.971367933121229</v>
+        <v>0.0007663706673234862</v>
       </c>
       <c r="H13">
-        <v>1.967281015356718</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1564018194967218</v>
+        <v>0.03316034588844552</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1623500908031268</v>
+        <v>0.4914313602819647</v>
       </c>
       <c r="M13">
-        <v>1.032494302289905</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.6279207367375719</v>
+      </c>
+      <c r="O13">
+        <v>1.993422843592981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.589502012405035</v>
+        <v>6.507029810645975</v>
       </c>
       <c r="C14">
-        <v>0.9163682105370583</v>
+        <v>0.9541101716378648</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.02837467082586365</v>
+        <v>0.03701401098879131</v>
       </c>
       <c r="F14">
-        <v>3.093043490428784</v>
+        <v>2.77964128830655</v>
       </c>
       <c r="G14">
-        <v>0.9529766602561551</v>
+        <v>0.0007680272821050105</v>
       </c>
       <c r="H14">
-        <v>1.932475696082363</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.155696343667131</v>
+        <v>0.03357420105282571</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1592629603526028</v>
+        <v>0.4832787932898839</v>
       </c>
       <c r="M14">
-        <v>1.012392901474684</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.6380045568175667</v>
+      </c>
+      <c r="O14">
+        <v>1.963167195765251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.533265354950515</v>
+        <v>6.431366037200689</v>
       </c>
       <c r="C15">
-        <v>0.9054057053056965</v>
+        <v>0.9427426598273598</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.02809385020438704</v>
+        <v>0.03691387744399854</v>
       </c>
       <c r="F15">
-        <v>3.056180043109322</v>
+        <v>2.75484016205715</v>
       </c>
       <c r="G15">
-        <v>0.9417861235748575</v>
+        <v>0.0007690431030983421</v>
       </c>
       <c r="H15">
-        <v>1.911304967633569</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1552771010368517</v>
+        <v>0.03383156151869571</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1573774781890087</v>
+        <v>0.4782992433136286</v>
       </c>
       <c r="M15">
-        <v>1.000125304007348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.6442316523600162</v>
+      </c>
+      <c r="O15">
+        <v>1.944782027926706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.214260303203957</v>
+        <v>6.001572362080765</v>
       </c>
       <c r="C16">
-        <v>0.8432332491517798</v>
+        <v>0.8781712236668113</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0264945534245733</v>
+        <v>0.03635167550611396</v>
       </c>
       <c r="F16">
-        <v>2.847531421316262</v>
+        <v>2.615177964183943</v>
       </c>
       <c r="G16">
-        <v>0.8787350870058788</v>
+        <v>0.0007748832884459312</v>
       </c>
       <c r="H16">
-        <v>1.792130914976525</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1530608780310452</v>
+        <v>0.03536307710633935</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1466513750537608</v>
+        <v>0.4499694127389802</v>
       </c>
       <c r="M16">
-        <v>0.9304719875639336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.6806650231468225</v>
+      </c>
+      <c r="O16">
+        <v>1.841570959443686</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.021242111038646</v>
+        <v>5.741067751211858</v>
       </c>
       <c r="C17">
-        <v>0.8056215675415217</v>
+        <v>0.8390274654944108</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02552183353908788</v>
+        <v>0.03601649305674925</v>
       </c>
       <c r="F17">
-        <v>2.721691062998644</v>
+        <v>2.531571949923773</v>
       </c>
       <c r="G17">
-        <v>0.8409479032084732</v>
+        <v>0.0007784851444982856</v>
       </c>
       <c r="H17">
-        <v>1.720803383196582</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1518561206814049</v>
+        <v>0.03635061060556133</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1401363376752762</v>
+        <v>0.4327626514024274</v>
       </c>
       <c r="M17">
-        <v>0.8882743561425173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.7036575035679142</v>
+      </c>
+      <c r="O17">
+        <v>1.780055173106746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.911121461452296</v>
+        <v>5.592304667091526</v>
       </c>
       <c r="C18">
-        <v>0.7841639886488565</v>
+        <v>0.8166698259597922</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02496524720984361</v>
+        <v>0.03582702774392832</v>
       </c>
       <c r="F18">
-        <v>2.650043314557422</v>
+        <v>2.484197957414594</v>
       </c>
       <c r="G18">
-        <v>0.8195159118947259</v>
+        <v>0.0007805646872905121</v>
       </c>
       <c r="H18">
-        <v>1.680382303070047</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1512158284620106</v>
+        <v>0.03693528440338589</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1364109877892759</v>
+        <v>0.4229250180898134</v>
       </c>
       <c r="M18">
-        <v>0.8641820713704362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.7171081888345547</v>
+      </c>
+      <c r="O18">
+        <v>1.74529131546754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.873982968227665</v>
+        <v>5.542112144725309</v>
       </c>
       <c r="C19">
-        <v>0.7769273083725352</v>
+        <v>0.8091254512724788</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02477727697354482</v>
+        <v>0.03576342684722356</v>
       </c>
       <c r="F19">
-        <v>2.625904875550987</v>
+        <v>2.468276248383162</v>
       </c>
       <c r="G19">
-        <v>0.8123089871936173</v>
+        <v>0.0007812702087787143</v>
       </c>
       <c r="H19">
-        <v>1.666795748437224</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1510077008072521</v>
+        <v>0.03713602111630188</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1351532342669408</v>
+        <v>0.4196039558093503</v>
       </c>
       <c r="M19">
-        <v>0.8560539955779163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.7217002880045591</v>
+      </c>
+      <c r="O19">
+        <v>1.733623148406522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.041694370912523</v>
+        <v>5.76868599560936</v>
       </c>
       <c r="C20">
-        <v>0.8096068084815329</v>
+        <v>0.8431778197850406</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0256250773402531</v>
+        <v>0.03605182461930756</v>
       </c>
       <c r="F20">
-        <v>2.735009866274765</v>
+        <v>2.540397021469218</v>
       </c>
       <c r="G20">
-        <v>0.844938577272643</v>
+        <v>0.0007781009263370463</v>
       </c>
       <c r="H20">
-        <v>1.728332655322646</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1519788283684385</v>
+        <v>0.0362437396575146</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.140827561803853</v>
+        <v>0.4345881172071842</v>
       </c>
       <c r="M20">
-        <v>0.8927475050823688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.7011863084191496</v>
+      </c>
+      <c r="O20">
+        <v>1.786538685995282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.616530189991749</v>
+        <v>6.543383399485776</v>
       </c>
       <c r="C21">
-        <v>0.9216372576955791</v>
+        <v>0.9595719081445964</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.02850951572991711</v>
+        <v>0.0370622431869565</v>
       </c>
       <c r="F21">
-        <v>3.110768906247102</v>
+        <v>2.791579510937652</v>
       </c>
       <c r="G21">
-        <v>0.9583629009860601</v>
+        <v>0.0007675404709584997</v>
       </c>
       <c r="H21">
-        <v>1.942667586501841</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1559008467623748</v>
+        <v>0.03345183066017121</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1601685720434745</v>
+        <v>0.4856704284079001</v>
       </c>
       <c r="M21">
-        <v>1.018287665005211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.6350321158763421</v>
+      </c>
+      <c r="O21">
+        <v>1.972023045285567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.002168447333929</v>
+        <v>7.061219775758161</v>
       </c>
       <c r="C22">
-        <v>0.9968422601425573</v>
+        <v>1.037382965575887</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03042467727686038</v>
+        <v>0.03775775891245026</v>
       </c>
       <c r="F22">
-        <v>3.36423288570731</v>
+        <v>2.963155913969814</v>
       </c>
       <c r="G22">
-        <v>1.035762016819262</v>
+        <v>0.0007606899783248273</v>
       </c>
       <c r="H22">
-        <v>2.089257193173907</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1590288995036495</v>
+        <v>0.03179734183472682</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1730485779567843</v>
+        <v>0.5196766200318166</v>
       </c>
       <c r="M22">
-        <v>1.102306665979519</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.5940280918896121</v>
+      </c>
+      <c r="O22">
+        <v>2.09972051270023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.795332309824403</v>
+        <v>6.783682684467578</v>
       </c>
       <c r="C23">
-        <v>0.9564996799087453</v>
+        <v>0.9956763755018017</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.02939955164147001</v>
+        <v>0.03738303427251566</v>
       </c>
       <c r="F23">
-        <v>3.228161388368022</v>
+        <v>2.870848881823576</v>
       </c>
       <c r="G23">
-        <v>0.9941228392631558</v>
+        <v>0.0007643424808260309</v>
       </c>
       <c r="H23">
-        <v>2.010364406355137</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1573025761645823</v>
+        <v>0.03266364925661769</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1661500412201669</v>
+        <v>0.5014652054866531</v>
       </c>
       <c r="M23">
-        <v>1.057263701164061</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.6156970705486309</v>
+      </c>
+      <c r="O23">
+        <v>2.030923192859248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.032445283096251</v>
+        <v>5.756196679507696</v>
       </c>
       <c r="C24">
-        <v>0.8078045687931308</v>
+        <v>0.8413009915279588</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02557839262890305</v>
+        <v>0.03603584119951631</v>
       </c>
       <c r="F24">
-        <v>2.72898627073991</v>
+        <v>2.536405061714902</v>
       </c>
       <c r="G24">
-        <v>0.8431334889531001</v>
+        <v>0.0007782746038345243</v>
       </c>
       <c r="H24">
-        <v>1.724926857738865</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1519231901986267</v>
+        <v>0.03629200351546302</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1405149968253134</v>
+        <v>0.4337626545345046</v>
       </c>
       <c r="M24">
-        <v>0.8907246761069558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.7023028154302935</v>
+      </c>
+      <c r="O24">
+        <v>1.783605623738268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.243090781407147</v>
+        <v>4.688017513854618</v>
       </c>
       <c r="C25">
-        <v>0.653959066107916</v>
+        <v>0.6806303652188035</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.02156556393796372</v>
+        <v>0.03470758957736386</v>
       </c>
       <c r="F25">
-        <v>2.217961817683815</v>
+        <v>2.202485053546312</v>
       </c>
       <c r="G25">
-        <v>0.6915816116397906</v>
+        <v>0.0007936109841012612</v>
       </c>
       <c r="H25">
-        <v>1.439687745361439</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.148096525567702</v>
+        <v>0.04083430214021355</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1136825577899998</v>
+        <v>0.362957481405175</v>
       </c>
       <c r="M25">
-        <v>0.717757935807164</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.8042679251484977</v>
+      </c>
+      <c r="O25">
+        <v>1.54005665982379</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.926962033800805</v>
+        <v>3.460828718214486</v>
       </c>
       <c r="C2">
-        <v>0.5658026880728073</v>
+        <v>0.4439168255892127</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03381350935753602</v>
+        <v>0.109879193023815</v>
       </c>
       <c r="F2">
-        <v>1.97486840394059</v>
+        <v>0.744772199940563</v>
       </c>
       <c r="G2">
-        <v>0.0008052543117964152</v>
+        <v>0.177108379238895</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.180695531918829</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1549370006458997</v>
       </c>
       <c r="J2">
-        <v>0.04462590633045593</v>
+        <v>0.06937529500892481</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3122979591621942</v>
+        <v>0.5975164865520526</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.885731130396664</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.37633149971316</v>
+        <v>0.7037346947385004</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.423200239589505</v>
+        <v>3.013921213057472</v>
       </c>
       <c r="C3">
-        <v>0.4894952326871191</v>
+        <v>0.4105331320674281</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03325061383276662</v>
+        <v>0.1071638666183823</v>
       </c>
       <c r="F3">
-        <v>1.829930280388083</v>
+        <v>0.7110311701031193</v>
       </c>
       <c r="G3">
-        <v>0.0008134010988435134</v>
+        <v>0.1723647518530527</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.1848415537752714</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1684589916310699</v>
       </c>
       <c r="J3">
-        <v>0.04743615371997301</v>
+        <v>0.06213109568265907</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2786967601877706</v>
+        <v>0.5313392627939066</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9445158401795588</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.273248121447949</v>
+        <v>0.7019893548447556</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.118697604484851</v>
+        <v>2.739399727797888</v>
       </c>
       <c r="C4">
-        <v>0.4432002096298504</v>
+        <v>0.3901074681502621</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03292368096267495</v>
+        <v>0.1056503947845755</v>
       </c>
       <c r="F4">
-        <v>1.744934154462527</v>
+        <v>0.691983825317692</v>
       </c>
       <c r="G4">
-        <v>0.0008185403130517693</v>
+        <v>0.170275930151206</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.187909023550624</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1775327782706295</v>
       </c>
       <c r="J4">
-        <v>0.04926954277858187</v>
+        <v>0.05768178730798468</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.258371332330114</v>
+        <v>0.4909662564896564</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9822555631609617</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.213300935583177</v>
+        <v>0.7037475958898938</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.995669838815616</v>
+        <v>2.627474479187924</v>
       </c>
       <c r="C5">
-        <v>0.4244498061135289</v>
+        <v>0.3818000271928099</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03279482415706347</v>
+        <v>0.105071014865068</v>
       </c>
       <c r="F5">
-        <v>1.711221152977785</v>
+        <v>0.6846213835004136</v>
       </c>
       <c r="G5">
-        <v>0.0008206705055225274</v>
+        <v>0.1696203837065298</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.1892851601627044</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1814165978580764</v>
       </c>
       <c r="J5">
-        <v>0.0500423399964216</v>
+        <v>0.05586798644646152</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2501581125599301</v>
+        <v>0.4745730184673675</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9980323571920131</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.189640730372346</v>
+        <v>0.7051406740170876</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.975301012627597</v>
+        <v>2.608885308080914</v>
       </c>
       <c r="C6">
-        <v>0.4213425785295897</v>
+        <v>0.3804215068180952</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03277368271671754</v>
+        <v>0.1049770297989703</v>
       </c>
       <c r="F6">
-        <v>1.705676658287473</v>
+        <v>0.683422406028761</v>
       </c>
       <c r="G6">
-        <v>0.0008210264324582494</v>
+        <v>0.1695230222936885</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.1895211391891536</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1820725273063619</v>
       </c>
       <c r="J6">
-        <v>0.05017217333336532</v>
+        <v>0.05556675630659313</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2487983104455935</v>
+        <v>0.4718543250082092</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000675642279546</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.185756385331374</v>
+        <v>0.7054118627949322</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.11703430828635</v>
+        <v>2.737890522181715</v>
       </c>
       <c r="C7">
-        <v>0.44294690039942</v>
+        <v>0.3899953680162724</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03292192586229348</v>
+        <v>0.1056424314094748</v>
       </c>
       <c r="F7">
-        <v>1.744475852439891</v>
+        <v>0.6918829415416354</v>
       </c>
       <c r="G7">
-        <v>0.0008185688942885214</v>
+        <v>0.1702663117852836</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.1879270785272453</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1775844129982147</v>
       </c>
       <c r="J7">
-        <v>0.04927986284766739</v>
+        <v>0.057657328899829</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2582602936509204</v>
+        <v>0.4907449403778799</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9824667453819202</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.212978825023072</v>
+        <v>0.7037636891242869</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.752172705158728</v>
+        <v>3.306743405096142</v>
       </c>
       <c r="C8">
-        <v>0.5393602198805638</v>
+        <v>0.4323899468141974</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03361533418930041</v>
+        <v>0.1089102434401106</v>
       </c>
       <c r="F8">
-        <v>1.924013273862187</v>
+        <v>0.7327791754516539</v>
       </c>
       <c r="G8">
-        <v>0.0008080357910623295</v>
+        <v>0.175294729135608</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.18201364650713</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1594345476922339</v>
       </c>
       <c r="J8">
-        <v>0.04557156902147419</v>
+        <v>0.0668775627506335</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.300644175758606</v>
+        <v>0.5746406743711248</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9056483334839314</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.340048138413252</v>
+        <v>0.7025239954483169</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.043325047607254</v>
+        <v>4.422631014983835</v>
       </c>
       <c r="C9">
-        <v>0.7341177104009375</v>
+        <v>0.5161970564444687</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03514058204259651</v>
+        <v>0.1165997090933608</v>
       </c>
       <c r="F9">
-        <v>2.311834057088589</v>
+        <v>0.8271939854008821</v>
       </c>
       <c r="G9">
-        <v>0.0007883956579461488</v>
+        <v>0.1922357685742355</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.174798559269405</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1303270334876991</v>
       </c>
       <c r="J9">
-        <v>0.03922911696369802</v>
+        <v>0.08496489991486555</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3865522386344651</v>
+        <v>0.7415339764294941</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7688694715587374</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.619404418449747</v>
+        <v>0.7242051661960573</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.031449363809315</v>
+        <v>5.244740137241195</v>
       </c>
       <c r="C10">
-        <v>0.8826601424117939</v>
+        <v>0.5783364672625169</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03639038970912889</v>
+        <v>0.1231204955759608</v>
       </c>
       <c r="F10">
-        <v>2.624818116037176</v>
+        <v>0.906651222500102</v>
       </c>
       <c r="G10">
-        <v>0.0007744732961507988</v>
+        <v>0.2097960660317071</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.172521259749864</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1134262163528401</v>
       </c>
       <c r="J10">
-        <v>0.03525272006810809</v>
+        <v>0.0982844481372851</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4519411509588878</v>
+        <v>0.8660685034653</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.678072745384835</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.84867721443166</v>
+        <v>0.7572637948449739</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.492545173506585</v>
+        <v>5.61972896183994</v>
       </c>
       <c r="C11">
-        <v>0.9519340257629381</v>
+        <v>0.6067668669768125</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03699481546225059</v>
+        <v>0.1262973859585337</v>
       </c>
       <c r="F11">
-        <v>2.774888657670772</v>
+        <v>0.9453252967839916</v>
       </c>
       <c r="G11">
-        <v>0.0007682214714124813</v>
+        <v>0.2190834378145468</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.1722251861414392</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1068364274939029</v>
       </c>
       <c r="J11">
-        <v>0.03362318931522879</v>
+        <v>0.1043570467088131</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4823257217073831</v>
+        <v>0.9232517644752534</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6391923961976005</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.959642746812818</v>
+        <v>0.7765966175801822</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.669102493087962</v>
+        <v>5.761915656239296</v>
       </c>
       <c r="C12">
-        <v>0.9784604075400125</v>
+        <v>0.6175595150886295</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03722964753960145</v>
+        <v>0.1275325379673546</v>
       </c>
       <c r="F12">
-        <v>2.832974620277298</v>
+        <v>0.9603635722148596</v>
       </c>
       <c r="G12">
-        <v>0.0007658631094684676</v>
+        <v>0.2228039516856484</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.172226932565728</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1045102058962915</v>
       </c>
       <c r="J12">
-        <v>0.03303501032941014</v>
+        <v>0.1066590752436554</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4939369601783881</v>
+        <v>0.9449919197844849</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6248490837660619</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.002760135994649</v>
+        <v>0.7845862776063655</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.63098607192336</v>
+        <v>5.731284209649516</v>
       </c>
       <c r="C13">
-        <v>0.9727335504127836</v>
+        <v>0.6152338842499319</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03717879358374709</v>
+        <v>0.1272650659881549</v>
       </c>
       <c r="F13">
-        <v>2.820406228052548</v>
+        <v>0.9571068281373556</v>
       </c>
       <c r="G13">
-        <v>0.0007663706673234862</v>
+        <v>0.2219933385981179</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1722213680163165</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.105003488052505</v>
       </c>
       <c r="J13">
-        <v>0.03316034588844552</v>
+        <v>0.1061631735963786</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4914313602819647</v>
+        <v>0.9403057987094599</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6279207367375719</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.993422843592981</v>
+        <v>0.7828349663758019</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.507029810645975</v>
+        <v>5.631422756761935</v>
       </c>
       <c r="C14">
-        <v>0.9541101716378648</v>
+        <v>0.6076542304778911</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03701401098879131</v>
+        <v>0.1263983476311807</v>
       </c>
       <c r="F14">
-        <v>2.77964128830655</v>
+        <v>0.9465544468767177</v>
       </c>
       <c r="G14">
-        <v>0.0007680272821050105</v>
+        <v>0.2193853464103412</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1722230032565761</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1066415901481079</v>
       </c>
       <c r="J14">
-        <v>0.03357420105282571</v>
+        <v>0.1045463833512343</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4832787932898839</v>
+        <v>0.9250385571138793</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6380045568175667</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.963167195765251</v>
+        <v>0.7772402234842417</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.431366037200689</v>
+        <v>5.570280325195995</v>
       </c>
       <c r="C15">
-        <v>0.9427426598273598</v>
+        <v>0.6030150483960313</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03691387744399854</v>
+        <v>0.1258716992660815</v>
       </c>
       <c r="F15">
-        <v>2.75484016205715</v>
+        <v>0.9401429332568512</v>
       </c>
       <c r="G15">
-        <v>0.0007690431030983421</v>
+        <v>0.2178149061500605</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1722390634762831</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.107667353934346</v>
       </c>
       <c r="J15">
-        <v>0.03383156151869571</v>
+        <v>0.1035563903860464</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4782992433136286</v>
+        <v>0.915698440111413</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6442316523600162</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.944782027926706</v>
+        <v>0.773901950527744</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.001572362080765</v>
+        <v>5.220257495146996</v>
       </c>
       <c r="C16">
-        <v>0.8781712236668113</v>
+        <v>0.5764820230534156</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03635167550611396</v>
+        <v>0.1229172711641979</v>
       </c>
       <c r="F16">
-        <v>2.615177964183943</v>
+        <v>0.9041771519336095</v>
       </c>
       <c r="G16">
-        <v>0.0007748832884459312</v>
+        <v>0.2092166647499525</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1725561243425418</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1138799223055926</v>
       </c>
       <c r="J16">
-        <v>0.03536307710633935</v>
+        <v>0.09788790499578681</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4499694127389802</v>
+        <v>0.8623429516174497</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6806650231468225</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.841570959443686</v>
+        <v>0.7560910632544733</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.741067751211858</v>
+        <v>5.005816454652233</v>
       </c>
       <c r="C17">
-        <v>0.8390274654944108</v>
+        <v>0.5602488164018666</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03601649305674925</v>
+        <v>0.1211600370151551</v>
       </c>
       <c r="F17">
-        <v>2.531571949923773</v>
+        <v>0.8827814265331142</v>
       </c>
       <c r="G17">
-        <v>0.0007784851444982856</v>
+        <v>0.2042862457357302</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1729452917466929</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1179802442481233</v>
       </c>
       <c r="J17">
-        <v>0.03635061060556133</v>
+        <v>0.09441428735742363</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4327626514024274</v>
+        <v>0.8297539383370065</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7036575035679142</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.780055173106746</v>
+        <v>0.746299920768621</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.592304667091526</v>
+        <v>4.882567754987065</v>
       </c>
       <c r="C18">
-        <v>0.8166698259597922</v>
+        <v>0.5509270248554685</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03582702774392832</v>
+        <v>0.1201690228570058</v>
       </c>
       <c r="F18">
-        <v>2.484197957414594</v>
+        <v>0.8707112880657206</v>
       </c>
       <c r="G18">
-        <v>0.0007805646872905121</v>
+        <v>0.2015716087480115</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1732382960037597</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1204413215104498</v>
       </c>
       <c r="J18">
-        <v>0.03693528440338589</v>
+        <v>0.09241758803107558</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4229250180898134</v>
+        <v>0.8110590474078663</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7171081888345547</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.74529131546754</v>
+        <v>0.7410692514089732</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.542112144725309</v>
+        <v>4.840852466508238</v>
       </c>
       <c r="C19">
-        <v>0.8091254512724788</v>
+        <v>0.5477733284598116</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03576342684722356</v>
+        <v>0.1198368113802388</v>
       </c>
       <c r="F19">
-        <v>2.468276248383162</v>
+        <v>0.8666642279520289</v>
       </c>
       <c r="G19">
-        <v>0.0007812702087787143</v>
+        <v>0.2006728038920542</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1733491618924674</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1212919049056822</v>
       </c>
       <c r="J19">
-        <v>0.03713602111630188</v>
+        <v>0.09174173632428051</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4196039558093503</v>
+        <v>0.8047374895213579</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7217002880045591</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.733623148406522</v>
+        <v>0.7393655919234021</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.76868599560936</v>
+        <v>5.028634244275793</v>
       </c>
       <c r="C20">
-        <v>0.8431778197850406</v>
+        <v>0.5619752814372703</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03605182461930756</v>
+        <v>0.121345045592907</v>
       </c>
       <c r="F20">
-        <v>2.540397021469218</v>
+        <v>0.8850343922644441</v>
       </c>
       <c r="G20">
-        <v>0.0007781009263370463</v>
+        <v>0.2047984345148492</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.1728966533263261</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.117533051873794</v>
       </c>
       <c r="J20">
-        <v>0.0362437396575146</v>
+        <v>0.09478392849145933</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4345881172071842</v>
+        <v>0.8332179093656862</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7011863084191496</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.786538685995282</v>
+        <v>0.7473003488864265</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.543383399485776</v>
+        <v>5.660749073616671</v>
       </c>
       <c r="C21">
-        <v>0.9595719081445964</v>
+        <v>0.6098798073697651</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0370622431869565</v>
+        <v>0.1266520363890571</v>
       </c>
       <c r="F21">
-        <v>2.791579510937652</v>
+        <v>0.9496430186682971</v>
       </c>
       <c r="G21">
-        <v>0.0007675404709584997</v>
+        <v>0.2201457123103623</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.1722193707059319</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1061557550306311</v>
       </c>
       <c r="J21">
-        <v>0.03345183066017121</v>
+        <v>0.1050212024479364</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4856704284079001</v>
+        <v>0.9295204993791231</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350321158763421</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.972023045285567</v>
+        <v>0.7788649603203766</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.061219775758161</v>
+        <v>6.074981909968358</v>
       </c>
       <c r="C22">
-        <v>1.037382965575887</v>
+        <v>0.6413453594534246</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03775775891245026</v>
+        <v>0.1303087009412955</v>
       </c>
       <c r="F22">
-        <v>2.963155913969814</v>
+        <v>0.9941757944974938</v>
       </c>
       <c r="G22">
-        <v>0.0007606899783248273</v>
+        <v>0.2313713235961643</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.1724442446781396</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.09971193739528594</v>
       </c>
       <c r="J22">
-        <v>0.03179734183472682</v>
+        <v>0.111726509576819</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5196766200318166</v>
+        <v>0.9929666095826519</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5940280918896121</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.09972051270023</v>
+        <v>0.8034184856404636</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.783682684467578</v>
+        <v>5.853781880464453</v>
       </c>
       <c r="C23">
-        <v>0.9956763755018017</v>
+        <v>0.6245360747806501</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03738303427251566</v>
+        <v>0.1283392025600207</v>
       </c>
       <c r="F23">
-        <v>2.870848881823576</v>
+        <v>0.9701863869576925</v>
       </c>
       <c r="G23">
-        <v>0.0007643424808260309</v>
+        <v>0.2252647934942971</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.1722605459175455</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1030564623762693</v>
       </c>
       <c r="J23">
-        <v>0.03266364925661769</v>
+        <v>0.1081462338856056</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5014652054866531</v>
+        <v>0.9590544939742074</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6156970705486309</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.030923192859248</v>
+        <v>0.7899369017566755</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.756196679507696</v>
+        <v>5.018318211599535</v>
       </c>
       <c r="C24">
-        <v>0.8413009915279588</v>
+        <v>0.5611947129013402</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03603584119951631</v>
+        <v>0.1212613434156644</v>
       </c>
       <c r="F24">
-        <v>2.536405061714902</v>
+        <v>0.8840151105666507</v>
       </c>
       <c r="G24">
-        <v>0.0007782746038345243</v>
+        <v>0.2045665016788547</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.1729184275645537</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1177349052364711</v>
       </c>
       <c r="J24">
-        <v>0.03629200351546302</v>
+        <v>0.09461681274741807</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4337626545345046</v>
+        <v>0.83165172117927</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7023028154302935</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.783605623738268</v>
+        <v>0.7468468182753867</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.688017513854618</v>
+        <v>4.120513055880394</v>
       </c>
       <c r="C25">
-        <v>0.6806303652188035</v>
+        <v>0.4934377051957028</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03470758957736386</v>
+        <v>0.1143733231766788</v>
       </c>
       <c r="F25">
-        <v>2.202485053546312</v>
+        <v>0.7999882865938872</v>
       </c>
       <c r="G25">
-        <v>0.0007936109841012612</v>
+        <v>0.1868153292455474</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1762462669735356</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1374541926517114</v>
       </c>
       <c r="J25">
-        <v>0.04083430214021355</v>
+        <v>0.08006844797341017</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.362957481405175</v>
+        <v>0.6960840411255873</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8042679251484977</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.54005665982379</v>
+        <v>0.7155163774017836</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.460828718214486</v>
+        <v>1.359208748987044</v>
       </c>
       <c r="C2">
-        <v>0.4439168255892127</v>
+        <v>0.3423610379078639</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.109879193023815</v>
+        <v>0.2727917404645233</v>
       </c>
       <c r="F2">
-        <v>0.744772199940563</v>
+        <v>1.486442873978078</v>
       </c>
       <c r="G2">
-        <v>0.177108379238895</v>
+        <v>0.3616040099458004</v>
       </c>
       <c r="H2">
-        <v>0.180695531918829</v>
+        <v>0.5373195866125116</v>
       </c>
       <c r="I2">
-        <v>0.1549370006458997</v>
+        <v>0.5360708483043499</v>
       </c>
       <c r="J2">
-        <v>0.06937529500892481</v>
+        <v>0.0315407555314664</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5975164865520526</v>
+        <v>0.5956268295430647</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7037346947385004</v>
+        <v>1.736698922457464</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.013921213057472</v>
+        <v>1.214844311253898</v>
       </c>
       <c r="C3">
-        <v>0.4105331320674281</v>
+        <v>0.3316009879988258</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1071638666183823</v>
+        <v>0.2738473555045537</v>
       </c>
       <c r="F3">
-        <v>0.7110311701031193</v>
+        <v>1.492251695326914</v>
       </c>
       <c r="G3">
-        <v>0.1723647518530527</v>
+        <v>0.3662242352030844</v>
       </c>
       <c r="H3">
-        <v>0.1848415537752714</v>
+        <v>0.5436084768193012</v>
       </c>
       <c r="I3">
-        <v>0.1684589916310699</v>
+        <v>0.5464334666670112</v>
       </c>
       <c r="J3">
-        <v>0.06213109568265907</v>
+        <v>0.02914222763023133</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5313392627939066</v>
+        <v>0.5784017149985914</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7019893548447556</v>
+        <v>1.75940046871257</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.739399727797888</v>
+        <v>1.125950509309348</v>
       </c>
       <c r="C4">
-        <v>0.3901074681502621</v>
+        <v>0.3250177688963731</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1056503947845755</v>
+        <v>0.2746042062860958</v>
       </c>
       <c r="F4">
-        <v>0.691983825317692</v>
+        <v>1.496754891604297</v>
       </c>
       <c r="G4">
-        <v>0.170275930151206</v>
+        <v>0.369429427066656</v>
       </c>
       <c r="H4">
-        <v>0.187909023550624</v>
+        <v>0.5477771251002537</v>
       </c>
       <c r="I4">
-        <v>0.1775327782706295</v>
+        <v>0.5532015393280236</v>
       </c>
       <c r="J4">
-        <v>0.05768178730798468</v>
+        <v>0.02766495176064154</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4909662564896564</v>
+        <v>0.5679901586724156</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7037475958898938</v>
+        <v>1.774754585876451</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.627474479187924</v>
+        <v>1.089664578146994</v>
       </c>
       <c r="C5">
-        <v>0.3818000271928099</v>
+        <v>0.322341253783307</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.105071014865068</v>
+        <v>0.2749400042547876</v>
       </c>
       <c r="F5">
-        <v>0.6846213835004136</v>
+        <v>1.498825471451923</v>
       </c>
       <c r="G5">
-        <v>0.1696203837065298</v>
+        <v>0.370827967521052</v>
       </c>
       <c r="H5">
-        <v>0.1892851601627044</v>
+        <v>0.5495531195105272</v>
       </c>
       <c r="I5">
-        <v>0.1814165978580764</v>
+        <v>0.5560613817296858</v>
       </c>
       <c r="J5">
-        <v>0.05586798644646152</v>
+        <v>0.02706184680994284</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4745730184673675</v>
+        <v>0.5637891684078511</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7051406740170876</v>
+        <v>1.781366861283161</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.608885308080914</v>
+        <v>1.083635724825626</v>
       </c>
       <c r="C6">
-        <v>0.3804215068180952</v>
+        <v>0.32189720360401</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1049770297989703</v>
+        <v>0.2749974178738945</v>
       </c>
       <c r="F6">
-        <v>0.683422406028761</v>
+        <v>1.499183512303127</v>
       </c>
       <c r="G6">
-        <v>0.1695230222936885</v>
+        <v>0.3710657680755602</v>
       </c>
       <c r="H6">
-        <v>0.1895211391891536</v>
+        <v>0.5498526862504178</v>
       </c>
       <c r="I6">
-        <v>0.1820725273063619</v>
+        <v>0.5565424006362765</v>
       </c>
       <c r="J6">
-        <v>0.05556675630659313</v>
+        <v>0.02696163643323501</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4718543250082092</v>
+        <v>0.5630941332058228</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7054118627949322</v>
+        <v>1.782486270995705</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.737890522181715</v>
+        <v>1.125461387821417</v>
       </c>
       <c r="C7">
-        <v>0.3899953680162724</v>
+        <v>0.3249816469846252</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1056424314094748</v>
+        <v>0.274608624078212</v>
       </c>
       <c r="F7">
-        <v>0.6918829415416354</v>
+        <v>1.496781862694256</v>
       </c>
       <c r="G7">
-        <v>0.1702663117852836</v>
+        <v>0.3694479144553213</v>
       </c>
       <c r="H7">
-        <v>0.1879270785272453</v>
+        <v>0.5478007640854301</v>
       </c>
       <c r="I7">
-        <v>0.1775844129982147</v>
+        <v>0.5532396961720103</v>
       </c>
       <c r="J7">
-        <v>0.057657328899829</v>
+        <v>0.02765682248132606</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4907449403778799</v>
+        <v>0.5679333328826601</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7037636891242869</v>
+        <v>1.774842323256777</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.306743405096142</v>
+        <v>1.309486093623548</v>
       </c>
       <c r="C8">
-        <v>0.4323899468141974</v>
+        <v>0.3386462671391826</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1089102434401106</v>
+        <v>0.2731331809673065</v>
       </c>
       <c r="F8">
-        <v>0.7327791754516539</v>
+        <v>1.48825136243218</v>
       </c>
       <c r="G8">
-        <v>0.175294729135608</v>
+        <v>0.3631204752883548</v>
       </c>
       <c r="H8">
-        <v>0.18201364650713</v>
+        <v>0.5394242141552539</v>
       </c>
       <c r="I8">
-        <v>0.1594345476922339</v>
+        <v>0.5395596595839631</v>
       </c>
       <c r="J8">
-        <v>0.0668775627506335</v>
+        <v>0.03071471851670537</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5746406743711248</v>
+        <v>0.589653640869912</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7025239954483169</v>
+        <v>1.744232354960033</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.422631014983835</v>
+        <v>1.668243992941143</v>
       </c>
       <c r="C9">
-        <v>0.5161970564444687</v>
+        <v>0.3656176118656163</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1165997090933608</v>
+        <v>0.2711005999179399</v>
       </c>
       <c r="F9">
-        <v>0.8271939854008821</v>
+        <v>1.478956328911593</v>
       </c>
       <c r="G9">
-        <v>0.1922357685742355</v>
+        <v>0.3536454246680591</v>
       </c>
       <c r="H9">
-        <v>0.174798559269405</v>
+        <v>0.5254366389490954</v>
       </c>
       <c r="I9">
-        <v>0.1303270334876991</v>
+        <v>0.5159555261824629</v>
       </c>
       <c r="J9">
-        <v>0.08496489991486555</v>
+        <v>0.03667324172383957</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.7415339764294941</v>
+        <v>0.6335400151493786</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7242051661960573</v>
+        <v>1.695460023156613</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.244740137241195</v>
+        <v>1.930422451630761</v>
       </c>
       <c r="C10">
-        <v>0.5783364672625169</v>
+        <v>0.3855270885087805</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1231204955759608</v>
+        <v>0.2701298757042601</v>
       </c>
       <c r="F10">
-        <v>0.906651222500102</v>
+        <v>1.476663801580401</v>
       </c>
       <c r="G10">
-        <v>0.2097960660317071</v>
+        <v>0.348486522036886</v>
       </c>
       <c r="H10">
-        <v>0.172521259749864</v>
+        <v>0.5166479981009502</v>
       </c>
       <c r="I10">
-        <v>0.1134262163528401</v>
+        <v>0.5005854896698434</v>
       </c>
       <c r="J10">
-        <v>0.0982844481372851</v>
+        <v>0.04102588416834863</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8660685034653</v>
+        <v>0.6665561920653431</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.7572637948449739</v>
+        <v>1.666521018797468</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.61972896183994</v>
+        <v>2.049368107174132</v>
       </c>
       <c r="C11">
-        <v>0.6067668669768125</v>
+        <v>0.3946021558028008</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1262973859585337</v>
+        <v>0.2698013108133281</v>
       </c>
       <c r="F11">
-        <v>0.9453252967839916</v>
+        <v>1.47660713590804</v>
       </c>
       <c r="G11">
-        <v>0.2190834378145468</v>
+        <v>0.3465340533700996</v>
       </c>
       <c r="H11">
-        <v>0.1722251861414392</v>
+        <v>0.5129732044565571</v>
       </c>
       <c r="I11">
-        <v>0.1068364274939029</v>
+        <v>0.4940230209965417</v>
       </c>
       <c r="J11">
-        <v>0.1043570467088131</v>
+        <v>0.04300018848158516</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.9232517644752534</v>
+        <v>0.6817409171869144</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7765966175801822</v>
+        <v>1.654860055898666</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.761915656239296</v>
+        <v>2.094361248421365</v>
       </c>
       <c r="C12">
-        <v>0.6175595150886295</v>
+        <v>0.3980409994819354</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1275325379673546</v>
+        <v>0.2696931054737597</v>
       </c>
       <c r="F12">
-        <v>0.9603635722148596</v>
+        <v>1.476727552289475</v>
       </c>
       <c r="G12">
-        <v>0.2228039516856484</v>
+        <v>0.3458516560455891</v>
       </c>
       <c r="H12">
-        <v>0.172226932565728</v>
+        <v>0.5116281606430917</v>
       </c>
       <c r="I12">
-        <v>0.1045102058962915</v>
+        <v>0.4915998839365869</v>
       </c>
       <c r="J12">
-        <v>0.1066590752436554</v>
+        <v>0.04374694067493579</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.9449919197844849</v>
+        <v>0.6875144454491817</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7845862776063655</v>
+        <v>1.650661146430664</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.731284209649516</v>
+        <v>2.084673395342747</v>
       </c>
       <c r="C13">
-        <v>0.6152338842499319</v>
+        <v>0.3973002848022134</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1272650659881549</v>
+        <v>0.2697156888570937</v>
       </c>
       <c r="F13">
-        <v>0.9571068281373556</v>
+        <v>1.476695307673381</v>
       </c>
       <c r="G13">
-        <v>0.2219933385981179</v>
+        <v>0.3459960851706398</v>
       </c>
       <c r="H13">
-        <v>0.1722213680163165</v>
+        <v>0.5119157701634691</v>
       </c>
       <c r="I13">
-        <v>0.105003488052505</v>
+        <v>0.492118992843773</v>
       </c>
       <c r="J13">
-        <v>0.1061631735963786</v>
+        <v>0.04358615388419196</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.9403057987094599</v>
+        <v>0.686269978304864</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7828349663758019</v>
+        <v>1.651555802410257</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.631422756761935</v>
+        <v>2.05307071842617</v>
       </c>
       <c r="C14">
-        <v>0.6076542304778911</v>
+        <v>0.3948850268795923</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1263983476311807</v>
+        <v>0.2697920839355064</v>
       </c>
       <c r="F14">
-        <v>0.9465544468767177</v>
+        <v>1.476614198940084</v>
       </c>
       <c r="G14">
-        <v>0.2193853464103412</v>
+        <v>0.3464767691146093</v>
       </c>
       <c r="H14">
-        <v>0.1722230032565761</v>
+        <v>0.5128616142919142</v>
       </c>
       <c r="I14">
-        <v>0.1066415901481079</v>
+        <v>0.493822425935976</v>
       </c>
       <c r="J14">
-        <v>0.1045463833512343</v>
+        <v>0.04306164203246254</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.9250385571138793</v>
+        <v>0.6822154420780748</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.7772402234842417</v>
+        <v>1.654510259575403</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.570280325195995</v>
+        <v>2.033706700080529</v>
       </c>
       <c r="C15">
-        <v>0.6030150483960313</v>
+        <v>0.3934059040863929</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1258716992660815</v>
+        <v>0.2698409886944049</v>
       </c>
       <c r="F15">
-        <v>0.9401429332568512</v>
+        <v>1.47658299540619</v>
       </c>
       <c r="G15">
-        <v>0.2178149061500605</v>
+        <v>0.3467786273218181</v>
       </c>
       <c r="H15">
-        <v>0.1722390634762831</v>
+        <v>0.5134470308294397</v>
       </c>
       <c r="I15">
-        <v>0.107667353934346</v>
+        <v>0.4948738978428171</v>
       </c>
       <c r="J15">
-        <v>0.1035563903860464</v>
+        <v>0.04274024809599553</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.915698440111413</v>
+        <v>0.6797349575109877</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.773901950527744</v>
+        <v>1.656348208243884</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.220257495146996</v>
+        <v>1.92264237368903</v>
       </c>
       <c r="C16">
-        <v>0.5764820230534156</v>
+        <v>0.3849343512279688</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1229172711641979</v>
+        <v>0.2701536192930156</v>
       </c>
       <c r="F16">
-        <v>0.9041771519336095</v>
+        <v>1.476687355007286</v>
       </c>
       <c r="G16">
-        <v>0.2092166647499525</v>
+        <v>0.3486220774057358</v>
       </c>
       <c r="H16">
-        <v>0.1725561243425418</v>
+        <v>0.5168946619975898</v>
       </c>
       <c r="I16">
-        <v>0.1138799223055926</v>
+        <v>0.5010230187719547</v>
       </c>
       <c r="J16">
-        <v>0.09788790499578681</v>
+        <v>0.04089673911762759</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.8623429516174497</v>
+        <v>0.6655671309479203</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.7560910632544733</v>
+        <v>1.667313399727107</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.005816454652233</v>
+        <v>1.854423820045383</v>
       </c>
       <c r="C17">
-        <v>0.5602488164018666</v>
+        <v>0.3797417635168756</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1211600370151551</v>
+        <v>0.2703743291613847</v>
       </c>
       <c r="F17">
-        <v>0.8827814265331142</v>
+        <v>1.477004011860231</v>
       </c>
       <c r="G17">
-        <v>0.2042862457357302</v>
+        <v>0.3498541563011699</v>
       </c>
       <c r="H17">
-        <v>0.1729452917466929</v>
+        <v>0.519092483927821</v>
       </c>
       <c r="I17">
-        <v>0.1179802442481233</v>
+        <v>0.5049054191785896</v>
       </c>
       <c r="J17">
-        <v>0.09441428735742363</v>
+        <v>0.03976430210272497</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.8297539383370065</v>
+        <v>0.6569177344587445</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.746299920768621</v>
+        <v>1.674425736105135</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.882567754987065</v>
+        <v>1.815156303365882</v>
       </c>
       <c r="C18">
-        <v>0.5509270248554685</v>
+        <v>0.3767568499780793</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1201690228570058</v>
+        <v>0.2705119160844554</v>
       </c>
       <c r="F18">
-        <v>0.8707112880657206</v>
+        <v>1.477278968592202</v>
       </c>
       <c r="G18">
-        <v>0.2015716087480115</v>
+        <v>0.3505999177489514</v>
       </c>
       <c r="H18">
-        <v>0.1732382960037597</v>
+        <v>0.5203870317334776</v>
       </c>
       <c r="I18">
-        <v>0.1204413215104498</v>
+        <v>0.507178883533955</v>
       </c>
       <c r="J18">
-        <v>0.09241758803107558</v>
+        <v>0.03911241745595362</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.8110590474078663</v>
+        <v>0.6519584316796738</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7410692514089732</v>
+        <v>1.678658045909359</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.840852466508238</v>
+        <v>1.801855931280159</v>
       </c>
       <c r="C19">
-        <v>0.5477733284598116</v>
+        <v>0.3757465150053747</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1198368113802388</v>
+        <v>0.2705603292995455</v>
       </c>
       <c r="F19">
-        <v>0.8666642279520289</v>
+        <v>1.477388005042698</v>
       </c>
       <c r="G19">
-        <v>0.2006728038920542</v>
+        <v>0.3508587843313222</v>
       </c>
       <c r="H19">
-        <v>0.1733491618924674</v>
+        <v>0.5208305664678647</v>
       </c>
       <c r="I19">
-        <v>0.1212919049056822</v>
+        <v>0.5079555746816755</v>
       </c>
       <c r="J19">
-        <v>0.09174173632428051</v>
+        <v>0.03889160982348017</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.8047374895213579</v>
+        <v>0.6502819886115105</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7393655919234021</v>
+        <v>1.68011531346616</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.028634244275793</v>
+        <v>1.861688928352066</v>
       </c>
       <c r="C20">
-        <v>0.5619752814372703</v>
+        <v>0.3802943469128763</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.121345045592907</v>
+        <v>0.2703497332443519</v>
       </c>
       <c r="F20">
-        <v>0.8850343922644441</v>
+        <v>1.476960695826548</v>
       </c>
       <c r="G20">
-        <v>0.2047984345148492</v>
+        <v>0.3497191576073035</v>
       </c>
       <c r="H20">
-        <v>0.1728966533263261</v>
+        <v>0.5188553734792833</v>
       </c>
       <c r="I20">
-        <v>0.117533051873794</v>
+        <v>0.5044879474422217</v>
       </c>
       <c r="J20">
-        <v>0.09478392849145933</v>
+        <v>0.03988490787465793</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.8332179093656862</v>
+        <v>0.6578368656801103</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.7473003488864265</v>
+        <v>1.673653968261632</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.660749073616671</v>
+        <v>2.062354543377012</v>
       </c>
       <c r="C21">
-        <v>0.6098798073697651</v>
+        <v>0.395594386263781</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1266520363890571</v>
+        <v>0.2697692050756615</v>
       </c>
       <c r="F21">
-        <v>0.9496430186682971</v>
+        <v>1.476634171663022</v>
       </c>
       <c r="G21">
-        <v>0.2201457123103623</v>
+        <v>0.3463340326879774</v>
       </c>
       <c r="H21">
-        <v>0.1722193707059319</v>
+        <v>0.5125825340291357</v>
       </c>
       <c r="I21">
-        <v>0.1061557550306311</v>
+        <v>0.4933204042632298</v>
       </c>
       <c r="J21">
-        <v>0.1050212024479364</v>
+        <v>0.0432157279901233</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.9295204993791231</v>
+        <v>0.6834057256689618</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7788649603203766</v>
+        <v>1.653636573743825</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.074981909968358</v>
+        <v>2.19321420577154</v>
       </c>
       <c r="C22">
-        <v>0.6413453594534246</v>
+        <v>0.4056071908425452</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1303087009412955</v>
+        <v>0.2694842927239662</v>
       </c>
       <c r="F22">
-        <v>0.9941757944974938</v>
+        <v>1.477247746953708</v>
       </c>
       <c r="G22">
-        <v>0.2313713235961643</v>
+        <v>0.3444537820860489</v>
       </c>
       <c r="H22">
-        <v>0.1724442446781396</v>
+        <v>0.5087540500689229</v>
       </c>
       <c r="I22">
-        <v>0.09971193739528594</v>
+        <v>0.4863828102103227</v>
       </c>
       <c r="J22">
-        <v>0.111726509576819</v>
+        <v>0.04538749437723055</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.9929666095826519</v>
+        <v>0.7002526779357936</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.8034184856404636</v>
+        <v>1.641818275264256</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.853781880464453</v>
+        <v>2.123399142904532</v>
       </c>
       <c r="C23">
-        <v>0.6245360747806501</v>
+        <v>0.4002620448324024</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1283392025600207</v>
+        <v>0.2696277217544605</v>
       </c>
       <c r="F23">
-        <v>0.9701863869576925</v>
+        <v>1.476844583383624</v>
       </c>
       <c r="G23">
-        <v>0.2252647934942971</v>
+        <v>0.3454268343020459</v>
       </c>
       <c r="H23">
-        <v>0.1722605459175455</v>
+        <v>0.5107725564367414</v>
       </c>
       <c r="I23">
-        <v>0.1030564623762693</v>
+        <v>0.4900524418576389</v>
       </c>
       <c r="J23">
-        <v>0.1081462338856056</v>
+        <v>0.04422886625487621</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.9590544939742074</v>
+        <v>0.6912488085407915</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7899369017566755</v>
+        <v>1.648010037359896</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.018318211599535</v>
+        <v>1.858404521438842</v>
       </c>
       <c r="C24">
-        <v>0.5611947129013402</v>
+        <v>0.380044522771982</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1212613434156644</v>
+        <v>0.270360819733007</v>
       </c>
       <c r="F24">
-        <v>0.8840151105666507</v>
+        <v>1.476979989614108</v>
       </c>
       <c r="G24">
-        <v>0.2045665016788547</v>
+        <v>0.3497800739668193</v>
       </c>
       <c r="H24">
-        <v>0.1729184275645537</v>
+        <v>0.5189624745816772</v>
       </c>
       <c r="I24">
-        <v>0.1177349052364711</v>
+        <v>0.5046765574045455</v>
       </c>
       <c r="J24">
-        <v>0.09461681274741807</v>
+        <v>0.03983038459162458</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.83165172117927</v>
+        <v>0.6574212848414049</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.7468468182753867</v>
+        <v>1.674002438079</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.120513055880394</v>
+        <v>1.571428484211879</v>
       </c>
       <c r="C25">
-        <v>0.4934377051957028</v>
+        <v>0.3583037725921656</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1143733231766788</v>
+        <v>0.2715585368850704</v>
       </c>
       <c r="F25">
-        <v>0.7999882865938872</v>
+        <v>1.480674572833436</v>
       </c>
       <c r="G25">
-        <v>0.1868153292455474</v>
+        <v>0.3558931843983615</v>
       </c>
       <c r="H25">
-        <v>0.1762462669735356</v>
+        <v>0.5289594254674839</v>
       </c>
       <c r="I25">
-        <v>0.1374541926517114</v>
+        <v>0.5219953180875958</v>
       </c>
       <c r="J25">
-        <v>0.08006844797341017</v>
+        <v>0.03506557083183282</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6960840411255873</v>
+        <v>0.6215307638642003</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7155163774017836</v>
+        <v>1.707445969192307</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.359208748987044</v>
+        <v>3.46082871821443</v>
       </c>
       <c r="C2">
-        <v>0.3423610379078639</v>
+        <v>0.4439168255892412</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2727917404645233</v>
+        <v>0.1098791930238292</v>
       </c>
       <c r="F2">
-        <v>1.486442873978078</v>
+        <v>0.7447721999405843</v>
       </c>
       <c r="G2">
-        <v>0.3616040099458004</v>
+        <v>0.1771083792388879</v>
       </c>
       <c r="H2">
-        <v>0.5373195866125116</v>
+        <v>0.1806955319188219</v>
       </c>
       <c r="I2">
-        <v>0.5360708483043499</v>
+        <v>0.1549370006458997</v>
       </c>
       <c r="J2">
-        <v>0.0315407555314664</v>
+        <v>0.06937529500893191</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5956268295430647</v>
+        <v>0.5975164865520384</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.736698922457464</v>
+        <v>0.7037346947385714</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.214844311253898</v>
+        <v>3.013921213057642</v>
       </c>
       <c r="C3">
-        <v>0.3316009879988258</v>
+        <v>0.4105331320674566</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2738473555045537</v>
+        <v>0.1071638666184143</v>
       </c>
       <c r="F3">
-        <v>1.492251695326914</v>
+        <v>0.7110311701031051</v>
       </c>
       <c r="G3">
-        <v>0.3662242352030844</v>
+        <v>0.1723647518531664</v>
       </c>
       <c r="H3">
-        <v>0.5436084768193012</v>
+        <v>0.1848415537751436</v>
       </c>
       <c r="I3">
-        <v>0.5464334666670112</v>
+        <v>0.1684589916310699</v>
       </c>
       <c r="J3">
-        <v>0.02914222763023133</v>
+        <v>0.06213109568251696</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5784017149985914</v>
+        <v>0.5313392627937503</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.75940046871257</v>
+        <v>0.7019893548447413</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.125950509309348</v>
+        <v>2.739399727797888</v>
       </c>
       <c r="C4">
-        <v>0.3250177688963731</v>
+        <v>0.3901074681500347</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2746042062860958</v>
+        <v>0.1056503947845826</v>
       </c>
       <c r="F4">
-        <v>1.496754891604297</v>
+        <v>0.6919838253176991</v>
       </c>
       <c r="G4">
-        <v>0.369429427066656</v>
+        <v>0.17027593015127</v>
       </c>
       <c r="H4">
-        <v>0.5477771251002537</v>
+        <v>0.187909023550624</v>
       </c>
       <c r="I4">
-        <v>0.5532015393280236</v>
+        <v>0.1775327782706455</v>
       </c>
       <c r="J4">
-        <v>0.02766495176064154</v>
+        <v>0.05768178730797047</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5679901586724156</v>
+        <v>0.4909662564896564</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.774754585876451</v>
+        <v>0.7037475958898227</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.089664578146994</v>
+        <v>2.627474479187867</v>
       </c>
       <c r="C5">
-        <v>0.322341253783307</v>
+        <v>0.3818000271930657</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2749400042547876</v>
+        <v>0.1050710148650325</v>
       </c>
       <c r="F5">
-        <v>1.498825471451923</v>
+        <v>0.6846213835004349</v>
       </c>
       <c r="G5">
-        <v>0.370827967521052</v>
+        <v>0.16962038370648</v>
       </c>
       <c r="H5">
-        <v>0.5495531195105272</v>
+        <v>0.1892851601625836</v>
       </c>
       <c r="I5">
-        <v>0.5560613817296858</v>
+        <v>0.1814165978580782</v>
       </c>
       <c r="J5">
-        <v>0.02706184680994284</v>
+        <v>0.05586798644653967</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5637891684078511</v>
+        <v>0.4745730184672396</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.781366861283161</v>
+        <v>0.7051406740170734</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.083635724825626</v>
+        <v>2.608885308080801</v>
       </c>
       <c r="C6">
-        <v>0.32189720360401</v>
+        <v>0.380421506818081</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2749974178738945</v>
+        <v>0.1049770297989525</v>
       </c>
       <c r="F6">
-        <v>1.499183512303127</v>
+        <v>0.6834224060287823</v>
       </c>
       <c r="G6">
-        <v>0.3710657680755602</v>
+        <v>0.1695230222936317</v>
       </c>
       <c r="H6">
-        <v>0.5498526862504178</v>
+        <v>0.1895211391892673</v>
       </c>
       <c r="I6">
-        <v>0.5565424006362765</v>
+        <v>0.1820725273063601</v>
       </c>
       <c r="J6">
-        <v>0.02696163643323501</v>
+        <v>0.05556675630655405</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5630941332058228</v>
+        <v>0.4718543250082803</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.782486270995705</v>
+        <v>0.7054118627948753</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.125461387821417</v>
+        <v>2.737890522181715</v>
       </c>
       <c r="C7">
-        <v>0.3249816469846252</v>
+        <v>0.3899953680163009</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.274608624078212</v>
+        <v>0.1056424314095032</v>
       </c>
       <c r="F7">
-        <v>1.496781862694256</v>
+        <v>0.6918829415416354</v>
       </c>
       <c r="G7">
-        <v>0.3694479144553213</v>
+        <v>0.1702663117853334</v>
       </c>
       <c r="H7">
-        <v>0.5478007640854301</v>
+        <v>0.1879270785271316</v>
       </c>
       <c r="I7">
-        <v>0.5532396961720103</v>
+        <v>0.1775844129982165</v>
       </c>
       <c r="J7">
-        <v>0.02765682248132606</v>
+        <v>0.05765732889972242</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5679333328826601</v>
+        <v>0.4907449403778088</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.774842323256777</v>
+        <v>0.7037636891243295</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.309486093623548</v>
+        <v>3.306743405095915</v>
       </c>
       <c r="C8">
-        <v>0.3386462671391826</v>
+        <v>0.432389946814169</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2731331809673065</v>
+        <v>0.1089102434400964</v>
       </c>
       <c r="F8">
-        <v>1.48825136243218</v>
+        <v>0.7327791754516255</v>
       </c>
       <c r="G8">
-        <v>0.3631204752883548</v>
+        <v>0.1752947291356008</v>
       </c>
       <c r="H8">
-        <v>0.5394242141552539</v>
+        <v>0.1820136465071371</v>
       </c>
       <c r="I8">
-        <v>0.5395596595839631</v>
+        <v>0.159434547692257</v>
       </c>
       <c r="J8">
-        <v>0.03071471851670537</v>
+        <v>0.06687756275068324</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.589653640869912</v>
+        <v>0.5746406743711674</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.744232354960033</v>
+        <v>0.7025239954483311</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.668243992941143</v>
+        <v>4.422631014983551</v>
       </c>
       <c r="C9">
-        <v>0.3656176118656163</v>
+        <v>0.5161970564444687</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2711005999179399</v>
+        <v>0.1165997090933537</v>
       </c>
       <c r="F9">
-        <v>1.478956328911593</v>
+        <v>0.8271939854008821</v>
       </c>
       <c r="G9">
-        <v>0.3536454246680591</v>
+        <v>0.1922357685743492</v>
       </c>
       <c r="H9">
-        <v>0.5254366389490954</v>
+        <v>0.1747985592695116</v>
       </c>
       <c r="I9">
-        <v>0.5159555261824629</v>
+        <v>0.1303270334876867</v>
       </c>
       <c r="J9">
-        <v>0.03667324172383957</v>
+        <v>0.0849648999149224</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6335400151493786</v>
+        <v>0.7415339764294231</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.695460023156613</v>
+        <v>0.7242051661960573</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.930422451630761</v>
+        <v>5.244740137241138</v>
       </c>
       <c r="C10">
-        <v>0.3855270885087805</v>
+        <v>0.5783364672626021</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2701298757042601</v>
+        <v>0.123120495576007</v>
       </c>
       <c r="F10">
-        <v>1.476663801580401</v>
+        <v>0.9066512225001162</v>
       </c>
       <c r="G10">
-        <v>0.348486522036886</v>
+        <v>0.2097960660315863</v>
       </c>
       <c r="H10">
-        <v>0.5166479981009502</v>
+        <v>0.172521259749864</v>
       </c>
       <c r="I10">
-        <v>0.5005854896698434</v>
+        <v>0.1134262163528224</v>
       </c>
       <c r="J10">
-        <v>0.04102588416834863</v>
+        <v>0.09828444813727089</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6665561920653431</v>
+        <v>0.8660685034652431</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.666521018797468</v>
+        <v>0.7572637948449881</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.049368107174132</v>
+        <v>5.61972896183994</v>
       </c>
       <c r="C11">
-        <v>0.3946021558028008</v>
+        <v>0.6067668669770114</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2698013108133281</v>
+        <v>0.1262973859585195</v>
       </c>
       <c r="F11">
-        <v>1.47660713590804</v>
+        <v>0.94532529678402</v>
       </c>
       <c r="G11">
-        <v>0.3465340533700996</v>
+        <v>0.2190834378145396</v>
       </c>
       <c r="H11">
-        <v>0.5129732044565571</v>
+        <v>0.1722251861414392</v>
       </c>
       <c r="I11">
-        <v>0.4940230209965417</v>
+        <v>0.1068364274939153</v>
       </c>
       <c r="J11">
-        <v>0.04300018848158516</v>
+        <v>0.1043570467088557</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6817409171869144</v>
+        <v>0.9232517644752249</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.654860055898666</v>
+        <v>0.776596617580168</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.094361248421365</v>
+        <v>5.761915656239182</v>
       </c>
       <c r="C12">
-        <v>0.3980409994819354</v>
+        <v>0.6175595150886011</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2696931054737597</v>
+        <v>0.1275325379673511</v>
       </c>
       <c r="F12">
-        <v>1.476727552289475</v>
+        <v>0.9603635722148596</v>
       </c>
       <c r="G12">
-        <v>0.3458516560455891</v>
+        <v>0.2228039516857265</v>
       </c>
       <c r="H12">
-        <v>0.5116281606430917</v>
+        <v>0.1722269325657209</v>
       </c>
       <c r="I12">
-        <v>0.4915998839365869</v>
+        <v>0.1045102058963092</v>
       </c>
       <c r="J12">
-        <v>0.04374694067493579</v>
+        <v>0.1066590752435701</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6875144454491817</v>
+        <v>0.9449919197844281</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.650661146430664</v>
+        <v>0.7845862776064223</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.084673395342747</v>
+        <v>5.731284209649459</v>
       </c>
       <c r="C13">
-        <v>0.3973002848022134</v>
+        <v>0.6152338842499319</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2697156888570937</v>
+        <v>0.1272650659881371</v>
       </c>
       <c r="F13">
-        <v>1.476695307673381</v>
+        <v>0.957106828137384</v>
       </c>
       <c r="G13">
-        <v>0.3459960851706398</v>
+        <v>0.2219933385982458</v>
       </c>
       <c r="H13">
-        <v>0.5119157701634691</v>
+        <v>0.1722213680163165</v>
       </c>
       <c r="I13">
-        <v>0.492118992843773</v>
+        <v>0.1050034880525033</v>
       </c>
       <c r="J13">
-        <v>0.04358615388419196</v>
+        <v>0.1061631735962365</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.686269978304864</v>
+        <v>0.940305798709403</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.651555802410257</v>
+        <v>0.7828349663758019</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.05307071842617</v>
+        <v>5.631422756762049</v>
       </c>
       <c r="C14">
-        <v>0.3948850268795923</v>
+        <v>0.6076542304782038</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2697920839355064</v>
+        <v>0.1263983476311594</v>
       </c>
       <c r="F14">
-        <v>1.476614198940084</v>
+        <v>0.9465544468767177</v>
       </c>
       <c r="G14">
-        <v>0.3464767691146093</v>
+        <v>0.2193853464104123</v>
       </c>
       <c r="H14">
-        <v>0.5128616142919142</v>
+        <v>0.172223003256704</v>
       </c>
       <c r="I14">
-        <v>0.493822425935976</v>
+        <v>0.1066415901481097</v>
       </c>
       <c r="J14">
-        <v>0.04306164203246254</v>
+        <v>0.1045463833511988</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6822154420780748</v>
+        <v>0.9250385571138793</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.654510259575403</v>
+        <v>0.7772402234843128</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.033706700080529</v>
+        <v>5.570280325196222</v>
       </c>
       <c r="C15">
-        <v>0.3934059040863929</v>
+        <v>0.6030150483962586</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2698409886944049</v>
+        <v>0.1258716992660958</v>
       </c>
       <c r="F15">
-        <v>1.47658299540619</v>
+        <v>0.9401429332568512</v>
       </c>
       <c r="G15">
-        <v>0.3467786273218181</v>
+        <v>0.2178149061501173</v>
       </c>
       <c r="H15">
-        <v>0.5134470308294397</v>
+        <v>0.1722390634762831</v>
       </c>
       <c r="I15">
-        <v>0.4948738978428171</v>
+        <v>0.1076673539343442</v>
       </c>
       <c r="J15">
-        <v>0.04274024809599553</v>
+        <v>0.1035563903860037</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6797349575109877</v>
+        <v>0.915698440111413</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.656348208243884</v>
+        <v>0.7739019505277582</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.92264237368903</v>
+        <v>5.220257495146996</v>
       </c>
       <c r="C16">
-        <v>0.3849343512279688</v>
+        <v>0.5764820230533871</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2701536192930156</v>
+        <v>0.1229172711641908</v>
       </c>
       <c r="F16">
-        <v>1.476687355007286</v>
+        <v>0.9041771519336095</v>
       </c>
       <c r="G16">
-        <v>0.3486220774057358</v>
+        <v>0.2092166647499667</v>
       </c>
       <c r="H16">
-        <v>0.5168946619975898</v>
+        <v>0.1725561243425346</v>
       </c>
       <c r="I16">
-        <v>0.5010230187719547</v>
+        <v>0.1138799223055926</v>
       </c>
       <c r="J16">
-        <v>0.04089673911762759</v>
+        <v>0.0978879049959005</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6655671309479203</v>
+        <v>0.8623429516173644</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.667313399727107</v>
+        <v>0.7560910632544733</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.854423820045383</v>
+        <v>5.005816454652518</v>
       </c>
       <c r="C17">
-        <v>0.3797417635168756</v>
+        <v>0.5602488164022645</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2703743291613847</v>
+        <v>0.121160037015148</v>
       </c>
       <c r="F17">
-        <v>1.477004011860231</v>
+        <v>0.8827814265331142</v>
       </c>
       <c r="G17">
-        <v>0.3498541563011699</v>
+        <v>0.2042862457357231</v>
       </c>
       <c r="H17">
-        <v>0.519092483927821</v>
+        <v>0.1729452917466929</v>
       </c>
       <c r="I17">
-        <v>0.5049054191785896</v>
+        <v>0.1179802442481268</v>
       </c>
       <c r="J17">
-        <v>0.03976430210272497</v>
+        <v>0.09441428735746626</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6569177344587445</v>
+        <v>0.8297539383370065</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.674425736105135</v>
+        <v>0.7462999207685641</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.815156303365882</v>
+        <v>4.882567754987235</v>
       </c>
       <c r="C18">
-        <v>0.3767568499780793</v>
+        <v>0.5509270248554685</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2705119160844554</v>
+        <v>0.1201690228569916</v>
       </c>
       <c r="F18">
-        <v>1.477278968592202</v>
+        <v>0.8707112880657064</v>
       </c>
       <c r="G18">
-        <v>0.3505999177489514</v>
+        <v>0.2015716087480186</v>
       </c>
       <c r="H18">
-        <v>0.5203870317334776</v>
+        <v>0.1732382960038663</v>
       </c>
       <c r="I18">
-        <v>0.507178883533955</v>
+        <v>0.1204413215104374</v>
       </c>
       <c r="J18">
-        <v>0.03911241745595362</v>
+        <v>0.09241758803113242</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6519584316796738</v>
+        <v>0.8110590474078947</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.678658045909359</v>
+        <v>0.7410692514089732</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.801855931280159</v>
+        <v>4.84085246650784</v>
       </c>
       <c r="C19">
-        <v>0.3757465150053747</v>
+        <v>0.5477733284599253</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2705603292995455</v>
+        <v>0.1198368113802566</v>
       </c>
       <c r="F19">
-        <v>1.477388005042698</v>
+        <v>0.8666642279520431</v>
       </c>
       <c r="G19">
-        <v>0.3508587843313222</v>
+        <v>0.2006728038921253</v>
       </c>
       <c r="H19">
-        <v>0.5208305664678647</v>
+        <v>0.1733491618924674</v>
       </c>
       <c r="I19">
-        <v>0.5079555746816755</v>
+        <v>0.1212919049056822</v>
       </c>
       <c r="J19">
-        <v>0.03889160982348017</v>
+        <v>0.09174173632435867</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6502819886115105</v>
+        <v>0.8047374895213864</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.68011531346616</v>
+        <v>0.7393655919233879</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.861688928352066</v>
+        <v>5.028634244275679</v>
       </c>
       <c r="C20">
-        <v>0.3802943469128763</v>
+        <v>0.5619752814373271</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2703497332443519</v>
+        <v>0.1213450455928964</v>
       </c>
       <c r="F20">
-        <v>1.476960695826548</v>
+        <v>0.8850343922644583</v>
       </c>
       <c r="G20">
-        <v>0.3497191576073035</v>
+        <v>0.204798434514835</v>
       </c>
       <c r="H20">
-        <v>0.5188553734792833</v>
+        <v>0.1728966533263261</v>
       </c>
       <c r="I20">
-        <v>0.5044879474422217</v>
+        <v>0.1175330518737958</v>
       </c>
       <c r="J20">
-        <v>0.03988490787465793</v>
+        <v>0.09478392849152328</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6578368656801103</v>
+        <v>0.8332179093656293</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.673653968261632</v>
+        <v>0.7473003488864833</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.062354543377012</v>
+        <v>5.660749073616898</v>
       </c>
       <c r="C21">
-        <v>0.395594386263781</v>
+        <v>0.6098798073697935</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2697692050756615</v>
+        <v>0.12665203638905</v>
       </c>
       <c r="F21">
-        <v>1.476634171663022</v>
+        <v>0.9496430186683114</v>
       </c>
       <c r="G21">
-        <v>0.3463340326879774</v>
+        <v>0.2201457123103054</v>
       </c>
       <c r="H21">
-        <v>0.5125825340291357</v>
+        <v>0.1722193707059319</v>
       </c>
       <c r="I21">
-        <v>0.4933204042632298</v>
+        <v>0.1061557550306311</v>
       </c>
       <c r="J21">
-        <v>0.0432157279901233</v>
+        <v>0.1050212024479507</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6834057256689618</v>
+        <v>0.9295204993791231</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.653636573743825</v>
+        <v>0.7788649603203197</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.19321420577154</v>
+        <v>6.074981909968415</v>
       </c>
       <c r="C22">
-        <v>0.4056071908425452</v>
+        <v>0.641345359453112</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2694842927239662</v>
+        <v>0.1303087009412849</v>
       </c>
       <c r="F22">
-        <v>1.477247746953708</v>
+        <v>0.994175794497508</v>
       </c>
       <c r="G22">
-        <v>0.3444537820860489</v>
+        <v>0.231371323596143</v>
       </c>
       <c r="H22">
-        <v>0.5087540500689229</v>
+        <v>0.1724442446781467</v>
       </c>
       <c r="I22">
-        <v>0.4863828102103227</v>
+        <v>0.09971193739528594</v>
       </c>
       <c r="J22">
-        <v>0.04538749437723055</v>
+        <v>0.1117265095768616</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7002526779357936</v>
+        <v>0.9929666095826235</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.641818275264256</v>
+        <v>0.8034184856404494</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.123399142904532</v>
+        <v>5.853781880464453</v>
       </c>
       <c r="C23">
-        <v>0.4002620448324024</v>
+        <v>0.6245360747803659</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2696277217544605</v>
+        <v>0.1283392025600243</v>
       </c>
       <c r="F23">
-        <v>1.476844583383624</v>
+        <v>0.9701863869576925</v>
       </c>
       <c r="G23">
-        <v>0.3454268343020459</v>
+        <v>0.2252647934943113</v>
       </c>
       <c r="H23">
-        <v>0.5107725564367414</v>
+        <v>0.1722605459175313</v>
       </c>
       <c r="I23">
-        <v>0.4900524418576389</v>
+        <v>0.1030564623762498</v>
       </c>
       <c r="J23">
-        <v>0.04422886625487621</v>
+        <v>0.1081462338857051</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6912488085407915</v>
+        <v>0.9590544939741505</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.648010037359896</v>
+        <v>0.7899369017566613</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.858404521438842</v>
+        <v>5.018318211599706</v>
       </c>
       <c r="C24">
-        <v>0.380044522771982</v>
+        <v>0.5611947129013686</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.270360819733007</v>
+        <v>0.121261343415707</v>
       </c>
       <c r="F24">
-        <v>1.476979989614108</v>
+        <v>0.8840151105666365</v>
       </c>
       <c r="G24">
-        <v>0.3497800739668193</v>
+        <v>0.2045665016788405</v>
       </c>
       <c r="H24">
-        <v>0.5189624745816772</v>
+        <v>0.1729184275646674</v>
       </c>
       <c r="I24">
-        <v>0.5046765574045455</v>
+        <v>0.1177349052364711</v>
       </c>
       <c r="J24">
-        <v>0.03983038459162458</v>
+        <v>0.09461681274737543</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6574212848414049</v>
+        <v>0.8316517211791563</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.674002438079</v>
+        <v>0.7468468182754435</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.571428484211879</v>
+        <v>4.120513055880224</v>
       </c>
       <c r="C25">
-        <v>0.3583037725921656</v>
+        <v>0.4934377051957028</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2715585368850704</v>
+        <v>0.1143733231766966</v>
       </c>
       <c r="F25">
-        <v>1.480674572833436</v>
+        <v>0.7999882865938872</v>
       </c>
       <c r="G25">
-        <v>0.3558931843983615</v>
+        <v>0.1868153292456043</v>
       </c>
       <c r="H25">
-        <v>0.5289594254674839</v>
+        <v>0.1762462669735427</v>
       </c>
       <c r="I25">
-        <v>0.5219953180875958</v>
+        <v>0.1374541926517114</v>
       </c>
       <c r="J25">
-        <v>0.03506557083183282</v>
+        <v>0.08006844797353097</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6215307638642003</v>
+        <v>0.6960840411256157</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.707445969192307</v>
+        <v>0.7155163774018263</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.46082871821443</v>
+        <v>2.277418120073094</v>
       </c>
       <c r="C2">
-        <v>0.4439168255892412</v>
+        <v>0.3637916894935813</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1098791930238292</v>
+        <v>0.1464068959320954</v>
       </c>
       <c r="F2">
-        <v>0.7447721999405843</v>
+        <v>0.9779286332298227</v>
       </c>
       <c r="G2">
-        <v>0.1771083792388879</v>
+        <v>0.2968747489833916</v>
       </c>
       <c r="H2">
-        <v>0.1806955319188219</v>
+        <v>0.0001836076315639978</v>
       </c>
       <c r="I2">
-        <v>0.1549370006458997</v>
+        <v>0.0005984223494692742</v>
       </c>
       <c r="J2">
-        <v>0.06937529500893191</v>
+        <v>0.2566189639518939</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2712980709856794</v>
       </c>
       <c r="L2">
-        <v>0.5975164865520384</v>
+        <v>0.05865320325448664</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.5329391430153834</v>
       </c>
       <c r="O2">
-        <v>0.7037346947385714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.898561488482521</v>
+      </c>
+      <c r="Q2">
+        <v>1.115918379445191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.013921213057642</v>
+        <v>1.985243648606797</v>
       </c>
       <c r="C3">
-        <v>0.4105331320674566</v>
+        <v>0.3410949181575234</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1071638666184143</v>
+        <v>0.1390046384748622</v>
       </c>
       <c r="F3">
-        <v>0.7110311701031051</v>
+        <v>0.9175048655351858</v>
       </c>
       <c r="G3">
-        <v>0.1723647518531664</v>
+        <v>0.2787239783288413</v>
       </c>
       <c r="H3">
-        <v>0.1848415537751436</v>
+        <v>0.000689065682016321</v>
       </c>
       <c r="I3">
-        <v>0.1684589916310699</v>
+        <v>0.0004185165365213628</v>
       </c>
       <c r="J3">
-        <v>0.06213109568251696</v>
+        <v>0.2519106003587837</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2716602319390446</v>
       </c>
       <c r="L3">
-        <v>0.5313392627937503</v>
+        <v>0.05262620326148237</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.4756274617177496</v>
       </c>
       <c r="O3">
-        <v>0.7019893548447413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.8899297198966778</v>
+      </c>
+      <c r="Q3">
+        <v>1.067318176770044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.739399727797888</v>
+        <v>1.805069960195539</v>
       </c>
       <c r="C4">
-        <v>0.3901074681500347</v>
+        <v>0.3271796262916666</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1056503947845826</v>
+        <v>0.1344503957458976</v>
       </c>
       <c r="F4">
-        <v>0.6919838253176991</v>
+        <v>0.880975794173807</v>
       </c>
       <c r="G4">
-        <v>0.17027593015127</v>
+        <v>0.2678688465314281</v>
       </c>
       <c r="H4">
-        <v>0.187909023550624</v>
+        <v>0.001179753501665992</v>
       </c>
       <c r="I4">
-        <v>0.1775327782706455</v>
+        <v>0.0004577860424346269</v>
       </c>
       <c r="J4">
-        <v>0.05768178730797047</v>
+        <v>0.2492346542169699</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2721117012828707</v>
       </c>
       <c r="L4">
-        <v>0.4909662564896564</v>
+        <v>0.04892611254187074</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.4405390086184013</v>
       </c>
       <c r="O4">
-        <v>0.7037475958898227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.8853055454062115</v>
+      </c>
+      <c r="Q4">
+        <v>1.038533979745054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.627474479187867</v>
+        <v>1.730515331053766</v>
       </c>
       <c r="C5">
-        <v>0.3818000271930657</v>
+        <v>0.3218111482200499</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1050710148650325</v>
+        <v>0.1325611599802414</v>
       </c>
       <c r="F5">
-        <v>0.6846213835004349</v>
+        <v>0.8657701470807453</v>
       </c>
       <c r="G5">
-        <v>0.16962038370648</v>
+        <v>0.2632195389848988</v>
       </c>
       <c r="H5">
-        <v>0.1892851601625836</v>
+        <v>0.001424283861559239</v>
       </c>
       <c r="I5">
-        <v>0.1814165978580782</v>
+        <v>0.0005758552829098207</v>
       </c>
       <c r="J5">
-        <v>0.05586798644653967</v>
+        <v>0.2480448209068697</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2721141411666927</v>
       </c>
       <c r="L5">
-        <v>0.4745730184672396</v>
+        <v>0.04746843737304118</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.4264961042529194</v>
       </c>
       <c r="O5">
-        <v>0.7051406740170734</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.8839629612385949</v>
+      </c>
+      <c r="Q5">
+        <v>1.026115434712182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.608885308080801</v>
+        <v>1.716978375440419</v>
       </c>
       <c r="C6">
-        <v>0.380421506818081</v>
+        <v>0.321286849312358</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1049770297989525</v>
+        <v>0.1322098322243299</v>
       </c>
       <c r="F6">
-        <v>0.6834224060287823</v>
+        <v>0.8626952838699538</v>
       </c>
       <c r="G6">
-        <v>0.1695230222936317</v>
+        <v>0.2620918698773096</v>
       </c>
       <c r="H6">
-        <v>0.1895211391892673</v>
+        <v>0.001468977776681646</v>
       </c>
       <c r="I6">
-        <v>0.1820725273063601</v>
+        <v>0.0006859504826008944</v>
       </c>
       <c r="J6">
-        <v>0.05556675630655405</v>
+        <v>0.2476650457797049</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2718281687381356</v>
       </c>
       <c r="L6">
-        <v>0.4718543250082803</v>
+        <v>0.04728839435541943</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.4244516829973577</v>
       </c>
       <c r="O6">
-        <v>0.7054118627948753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8842126562560821</v>
+      </c>
+      <c r="Q6">
+        <v>1.02291746724444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.737890522181715</v>
+        <v>1.800926790485335</v>
       </c>
       <c r="C7">
-        <v>0.3899953680163009</v>
+        <v>0.32811385528899</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1056424314095032</v>
+        <v>0.1343229004722346</v>
       </c>
       <c r="F7">
-        <v>0.6918829415416354</v>
+        <v>0.8792458230072597</v>
       </c>
       <c r="G7">
-        <v>0.1702663117853334</v>
+        <v>0.2668227343039362</v>
       </c>
       <c r="H7">
-        <v>0.1879270785271316</v>
+        <v>0.00118650451426805</v>
       </c>
       <c r="I7">
-        <v>0.1775844129982165</v>
+        <v>0.0006855382420170031</v>
       </c>
       <c r="J7">
-        <v>0.05765732889972242</v>
+        <v>0.2487125679669759</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2713209889018628</v>
       </c>
       <c r="L7">
-        <v>0.4907449403778088</v>
+        <v>0.04907642980768401</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.4411324427941707</v>
       </c>
       <c r="O7">
-        <v>0.7037636891243295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.8865637849942871</v>
+      </c>
+      <c r="Q7">
+        <v>1.035221427146169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.306743405095915</v>
+        <v>2.172641150747154</v>
       </c>
       <c r="C8">
-        <v>0.432389946814169</v>
+        <v>0.3573134812299799</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1089102434400964</v>
+        <v>0.1437222404723109</v>
       </c>
       <c r="F8">
-        <v>0.7327791754516255</v>
+        <v>0.9549532481261025</v>
       </c>
       <c r="G8">
-        <v>0.1752947291356008</v>
+        <v>0.2892503278292295</v>
       </c>
       <c r="H8">
-        <v>0.1820136465071371</v>
+        <v>0.0003215841991421886</v>
       </c>
       <c r="I8">
-        <v>0.159434547692257</v>
+        <v>0.0007753989157261998</v>
       </c>
       <c r="J8">
-        <v>0.06687756275068324</v>
+        <v>0.2542819444385955</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2703327685567594</v>
       </c>
       <c r="L8">
-        <v>0.5746406743711674</v>
+        <v>0.05680207472358489</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.5141980839732128</v>
       </c>
       <c r="O8">
-        <v>0.7025239954483311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.8971890088962198</v>
+      </c>
+      <c r="Q8">
+        <v>1.094771756498716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.422631014983551</v>
+        <v>2.901205837165946</v>
       </c>
       <c r="C9">
-        <v>0.5161970564444687</v>
+        <v>0.4130011665356079</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1165997090933537</v>
+        <v>0.1622820809483798</v>
       </c>
       <c r="F9">
-        <v>0.8271939854008821</v>
+        <v>1.111031920744566</v>
       </c>
       <c r="G9">
-        <v>0.1922357685743492</v>
+        <v>0.3375032934972921</v>
       </c>
       <c r="H9">
-        <v>0.1747985592695116</v>
+        <v>0.0001487792027159429</v>
       </c>
       <c r="I9">
-        <v>0.1303270334876867</v>
+        <v>0.001885803308463885</v>
       </c>
       <c r="J9">
-        <v>0.0849648999149224</v>
+        <v>0.2679026967905997</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2717147537473075</v>
       </c>
       <c r="L9">
-        <v>0.7415339764294231</v>
+        <v>0.0716748409090826</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.6570197801110425</v>
       </c>
       <c r="O9">
-        <v>0.7242051661960573</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.9212442982682347</v>
+      </c>
+      <c r="Q9">
+        <v>1.22620160022808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.244740137241138</v>
+        <v>3.418800774985186</v>
       </c>
       <c r="C10">
-        <v>0.5783364672626021</v>
+        <v>0.4575893901861434</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.123120495576007</v>
+        <v>0.1715620566260014</v>
       </c>
       <c r="F10">
-        <v>0.9066512225001162</v>
+        <v>1.212191309957916</v>
       </c>
       <c r="G10">
-        <v>0.2097960660315863</v>
+        <v>0.3700098997309027</v>
       </c>
       <c r="H10">
-        <v>0.172521259749864</v>
+        <v>0.001196860648992271</v>
       </c>
       <c r="I10">
-        <v>0.1134262163528224</v>
+        <v>0.003678868087359177</v>
       </c>
       <c r="J10">
-        <v>0.09828444813727089</v>
+        <v>0.2767492786348384</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2707733448450789</v>
       </c>
       <c r="L10">
-        <v>0.8660685034652431</v>
+        <v>0.08475639575232918</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.7443697239082923</v>
       </c>
       <c r="O10">
-        <v>0.7572637948449881</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.9490745993128797</v>
+      </c>
+      <c r="Q10">
+        <v>1.314051907044927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.61972896183994</v>
+        <v>3.537306606870288</v>
       </c>
       <c r="C11">
-        <v>0.6067668669770114</v>
+        <v>0.505929651434144</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1262973859585195</v>
+        <v>0.1416683272223231</v>
       </c>
       <c r="F11">
-        <v>0.94532529678402</v>
+        <v>1.11788689999733</v>
       </c>
       <c r="G11">
-        <v>0.2190834378145396</v>
+        <v>0.3467967335706561</v>
       </c>
       <c r="H11">
-        <v>0.1722251861414392</v>
+        <v>0.01976390737392464</v>
       </c>
       <c r="I11">
-        <v>0.1068364274939153</v>
+        <v>0.00470156372315067</v>
       </c>
       <c r="J11">
-        <v>0.1043570467088557</v>
+        <v>0.2618246620090048</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2453095083740351</v>
       </c>
       <c r="L11">
-        <v>0.9232517644752249</v>
+        <v>0.1107935014538555</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.6293713228464242</v>
       </c>
       <c r="O11">
-        <v>0.776596617580168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1.01788042684386</v>
+      </c>
+      <c r="Q11">
+        <v>1.233747967196848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.761915656239182</v>
+        <v>3.531167473152891</v>
       </c>
       <c r="C12">
-        <v>0.6175595150886011</v>
+        <v>0.5374470762976387</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1275325379673511</v>
+        <v>0.1191298969600538</v>
       </c>
       <c r="F12">
-        <v>0.9603635722148596</v>
+        <v>1.021784163486615</v>
       </c>
       <c r="G12">
-        <v>0.2228039516857265</v>
+        <v>0.3221144445949591</v>
       </c>
       <c r="H12">
-        <v>0.1722269325657209</v>
+        <v>0.05831401595567343</v>
       </c>
       <c r="I12">
-        <v>0.1045102058963092</v>
+        <v>0.004772638726878498</v>
       </c>
       <c r="J12">
-        <v>0.1066590752435701</v>
+        <v>0.2481367020243397</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2260357910512667</v>
       </c>
       <c r="L12">
-        <v>0.9449919197844281</v>
+        <v>0.132797854323627</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.521877837612621</v>
       </c>
       <c r="O12">
-        <v>0.7845862776064223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1.071772966778383</v>
+      </c>
+      <c r="Q12">
+        <v>1.152813066562175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.731284209649459</v>
+        <v>3.423839794349362</v>
       </c>
       <c r="C13">
-        <v>0.6152338842499319</v>
+        <v>0.5591050884241042</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1272650659881371</v>
+        <v>0.1008124010909217</v>
       </c>
       <c r="F13">
-        <v>0.957106828137384</v>
+        <v>0.9165941766420218</v>
       </c>
       <c r="G13">
-        <v>0.2219933385982458</v>
+        <v>0.2932912563111643</v>
       </c>
       <c r="H13">
-        <v>0.1722213680163165</v>
+        <v>0.1138250551993423</v>
       </c>
       <c r="I13">
-        <v>0.1050034880525033</v>
+        <v>0.0044294248062835</v>
       </c>
       <c r="J13">
-        <v>0.1061631735962365</v>
+        <v>0.2337739917485067</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2091210658685334</v>
       </c>
       <c r="L13">
-        <v>0.940305798709403</v>
+        <v>0.1529934345623616</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.4157562651106161</v>
       </c>
       <c r="O13">
-        <v>0.7828349663758019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.118387389168348</v>
+      </c>
+      <c r="Q13">
+        <v>1.061607466824682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.631422756762049</v>
+        <v>3.302321107359717</v>
       </c>
       <c r="C14">
-        <v>0.6076542304782038</v>
+        <v>0.5702076927505573</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1263983476311594</v>
+        <v>0.09056137031934419</v>
       </c>
       <c r="F14">
-        <v>0.9465544468767177</v>
+        <v>0.8395140010878634</v>
       </c>
       <c r="G14">
-        <v>0.2193853464104123</v>
+        <v>0.2712206134587305</v>
       </c>
       <c r="H14">
-        <v>0.172223003256704</v>
+        <v>0.1629727876266003</v>
       </c>
       <c r="I14">
-        <v>0.1066415901481097</v>
+        <v>0.004094326641458146</v>
       </c>
       <c r="J14">
-        <v>0.1045463833511988</v>
+        <v>0.2233792613484908</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.198375905541333</v>
       </c>
       <c r="L14">
-        <v>0.9250385571138793</v>
+        <v>0.1666223888137708</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.3441901949318407</v>
       </c>
       <c r="O14">
-        <v>0.7772402234843128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.148261728472235</v>
+      </c>
+      <c r="Q14">
+        <v>0.9929972745537441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.570280325196222</v>
+        <v>3.250333673074579</v>
       </c>
       <c r="C15">
-        <v>0.6030150483962586</v>
+        <v>0.5710437994869153</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1258716992660958</v>
+        <v>0.0883807234842422</v>
       </c>
       <c r="F15">
-        <v>0.9401429332568512</v>
+        <v>0.8181646040572872</v>
       </c>
       <c r="G15">
-        <v>0.2178149061501173</v>
+        <v>0.2646445703679277</v>
       </c>
       <c r="H15">
-        <v>0.1722390634762831</v>
+        <v>0.1753951888422876</v>
       </c>
       <c r="I15">
-        <v>0.1076673539343442</v>
+        <v>0.004035434875275357</v>
       </c>
       <c r="J15">
-        <v>0.1035563903860037</v>
+        <v>0.2205526302341667</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1959548231208643</v>
       </c>
       <c r="L15">
-        <v>0.915698440111413</v>
+        <v>0.1692229088848549</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.3262177028920519</v>
       </c>
       <c r="O15">
-        <v>0.7739019505277582</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.154031311537565</v>
+      </c>
+      <c r="Q15">
+        <v>0.9731061250300712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.220257495146996</v>
+        <v>3.050033867488537</v>
       </c>
       <c r="C16">
-        <v>0.5764820230533871</v>
+        <v>0.5471552968940898</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1229172711641908</v>
+        <v>0.08845795949067004</v>
       </c>
       <c r="F16">
-        <v>0.9041771519336095</v>
+        <v>0.7968976887807457</v>
       </c>
       <c r="G16">
-        <v>0.2092166647499667</v>
+        <v>0.2561285017787327</v>
       </c>
       <c r="H16">
-        <v>0.1725561243425346</v>
+        <v>0.1622369982452767</v>
       </c>
       <c r="I16">
-        <v>0.1138799223055926</v>
+        <v>0.003420464273019341</v>
       </c>
       <c r="J16">
-        <v>0.0978879049959005</v>
+        <v>0.2193505883855948</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1993077965370382</v>
       </c>
       <c r="L16">
-        <v>0.8623429516173644</v>
+        <v>0.1589227353514744</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.3134851758870383</v>
       </c>
       <c r="O16">
-        <v>0.7560910632544733</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.130306605629031</v>
+      </c>
+      <c r="Q16">
+        <v>0.9523635878292396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.005816454652518</v>
+        <v>2.960755227558707</v>
       </c>
       <c r="C17">
-        <v>0.5602488164022645</v>
+        <v>0.5230290484722389</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.121160037015148</v>
+        <v>0.09349363229696195</v>
       </c>
       <c r="F17">
-        <v>0.8827814265331142</v>
+        <v>0.8209778647087944</v>
       </c>
       <c r="G17">
-        <v>0.2042862457357231</v>
+        <v>0.2612470054414544</v>
       </c>
       <c r="H17">
-        <v>0.1729452917466929</v>
+        <v>0.1242533650057851</v>
       </c>
       <c r="I17">
-        <v>0.1179802442481268</v>
+        <v>0.003159073995679051</v>
       </c>
       <c r="J17">
-        <v>0.09441428735746626</v>
+        <v>0.2239456695510071</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2075024515992396</v>
       </c>
       <c r="L17">
-        <v>0.8297539383370065</v>
+        <v>0.1436611211877192</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.3404495686755808</v>
       </c>
       <c r="O17">
-        <v>0.7462999207685641</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.096623407431352</v>
+      </c>
+      <c r="Q17">
+        <v>0.972733921886757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.882567754987235</v>
+        <v>2.958790327132988</v>
       </c>
       <c r="C18">
-        <v>0.5509270248554685</v>
+        <v>0.4955917734109221</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1201690228569916</v>
+        <v>0.1056911733554138</v>
       </c>
       <c r="F18">
-        <v>0.8707112880657064</v>
+        <v>0.889526588433796</v>
       </c>
       <c r="G18">
-        <v>0.2015716087480186</v>
+        <v>0.2795899490175628</v>
       </c>
       <c r="H18">
-        <v>0.1732382960038663</v>
+        <v>0.07139430606972752</v>
       </c>
       <c r="I18">
-        <v>0.1204413215104374</v>
+        <v>0.002869805109297907</v>
       </c>
       <c r="J18">
-        <v>0.09241758803113242</v>
+        <v>0.2344561426696004</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2217466039375466</v>
       </c>
       <c r="L18">
-        <v>0.8110590474078947</v>
+        <v>0.1235156734599272</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.4092168935969198</v>
       </c>
       <c r="O18">
-        <v>0.7410692514089732</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.050584891668024</v>
+      </c>
+      <c r="Q18">
+        <v>1.033577660213666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.84085246650784</v>
+        <v>3.020867029654653</v>
       </c>
       <c r="C19">
-        <v>0.5477733284599253</v>
+        <v>0.4708121931794267</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1198368113802566</v>
+        <v>0.1261196261555355</v>
       </c>
       <c r="F19">
-        <v>0.8666642279520431</v>
+        <v>0.9896863283194364</v>
       </c>
       <c r="G19">
-        <v>0.2006728038921253</v>
+        <v>0.3061854007626934</v>
       </c>
       <c r="H19">
-        <v>0.1733491618924674</v>
+        <v>0.02628748812347226</v>
       </c>
       <c r="I19">
-        <v>0.1212919049056822</v>
+        <v>0.003087616493508527</v>
       </c>
       <c r="J19">
-        <v>0.09174173632435867</v>
+        <v>0.2483265764329943</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2394940012948297</v>
       </c>
       <c r="L19">
-        <v>0.8047374895213864</v>
+        <v>0.1033064645663444</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.5158665203551323</v>
       </c>
       <c r="O19">
-        <v>0.7393655919233879</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1.003258629504515</v>
+      </c>
+      <c r="Q19">
+        <v>1.118998798547267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.028634244275679</v>
+        <v>3.272543785188304</v>
       </c>
       <c r="C20">
-        <v>0.5619752814373271</v>
+        <v>0.4492916694737659</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1213450455928964</v>
+        <v>0.1686363390501064</v>
       </c>
       <c r="F20">
-        <v>0.8850343922644583</v>
+        <v>1.179971928615998</v>
       </c>
       <c r="G20">
-        <v>0.204798434514835</v>
+        <v>0.3580960812462877</v>
       </c>
       <c r="H20">
-        <v>0.1728966533263261</v>
+        <v>0.0008216650800454417</v>
       </c>
       <c r="I20">
-        <v>0.1175330518737958</v>
+        <v>0.003854385681330896</v>
       </c>
       <c r="J20">
-        <v>0.09478392849152328</v>
+        <v>0.2726899944875214</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.268399701231651</v>
       </c>
       <c r="L20">
-        <v>0.8332179093656293</v>
+        <v>0.08195173842819514</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.723079981254827</v>
       </c>
       <c r="O20">
-        <v>0.7473003488864833</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.9461440663670686</v>
+      </c>
+      <c r="Q20">
+        <v>1.280188066774741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.660749073616898</v>
+        <v>3.690237114152183</v>
       </c>
       <c r="C21">
-        <v>0.6098798073697935</v>
+        <v>0.4785690954258683</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.12665203638905</v>
+        <v>0.1824869270484264</v>
       </c>
       <c r="F21">
-        <v>0.9496430186683114</v>
+        <v>1.284982204372824</v>
       </c>
       <c r="G21">
-        <v>0.2201457123103054</v>
+        <v>0.3910090556654637</v>
       </c>
       <c r="H21">
-        <v>0.1722193707059319</v>
+        <v>0.001848571673100152</v>
       </c>
       <c r="I21">
-        <v>0.1061557550306311</v>
+        <v>0.005460512858300959</v>
       </c>
       <c r="J21">
-        <v>0.1050212024479507</v>
+        <v>0.2835540164729906</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2731010477162279</v>
       </c>
       <c r="L21">
-        <v>0.9295204993791231</v>
+        <v>0.08879538418814548</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.8189436927256679</v>
       </c>
       <c r="O21">
-        <v>0.7788649603203197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.9591474000773985</v>
+      </c>
+      <c r="Q21">
+        <v>1.373022365146369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.074981909968415</v>
+        <v>3.960497257519648</v>
       </c>
       <c r="C22">
-        <v>0.641345359453112</v>
+        <v>0.4978734174853514</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1303087009412849</v>
+        <v>0.1894870877664481</v>
       </c>
       <c r="F22">
-        <v>0.994175794497508</v>
+        <v>1.348140297167404</v>
       </c>
       <c r="G22">
-        <v>0.231371323596143</v>
+        <v>0.4120538307025612</v>
       </c>
       <c r="H22">
-        <v>0.1724442446781467</v>
+        <v>0.002806045050495976</v>
       </c>
       <c r="I22">
-        <v>0.09971193739528594</v>
+        <v>0.006411067346041577</v>
       </c>
       <c r="J22">
-        <v>0.1117265095768616</v>
+        <v>0.2904817866412799</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.275999247841952</v>
       </c>
       <c r="L22">
-        <v>0.9929666095826235</v>
+        <v>0.09408593451638581</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.8712082963136538</v>
       </c>
       <c r="O22">
-        <v>0.8034184856404494</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.9694654319790885</v>
+      </c>
+      <c r="Q22">
+        <v>1.432338744347788</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.853781880464453</v>
+        <v>3.820139758481332</v>
       </c>
       <c r="C23">
-        <v>0.6245360747803659</v>
+        <v>0.4862974692194086</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1283392025600243</v>
+        <v>0.1858672572643947</v>
       </c>
       <c r="F23">
-        <v>0.9701863869576925</v>
+        <v>1.316154196661984</v>
       </c>
       <c r="G23">
-        <v>0.2252647934943113</v>
+        <v>0.4019427211052147</v>
       </c>
       <c r="H23">
-        <v>0.1722605459175313</v>
+        <v>0.002276788865251511</v>
       </c>
       <c r="I23">
-        <v>0.1030564623762498</v>
+        <v>0.005612086558240748</v>
       </c>
       <c r="J23">
-        <v>0.1081462338857051</v>
+        <v>0.2873488890492553</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2753371392509294</v>
       </c>
       <c r="L23">
-        <v>0.9590544939741505</v>
+        <v>0.091050922103598</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.8423452360814281</v>
       </c>
       <c r="O23">
-        <v>0.7899369017566613</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.9621841717873139</v>
+      </c>
+      <c r="Q23">
+        <v>1.404239607314679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.018318211599706</v>
+        <v>3.281535732691509</v>
       </c>
       <c r="C24">
-        <v>0.5611947129013686</v>
+        <v>0.4446306174464212</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.121261343415707</v>
+        <v>0.1719967260608577</v>
       </c>
       <c r="F24">
-        <v>0.8840151105666365</v>
+        <v>1.193868871321982</v>
       </c>
       <c r="G24">
-        <v>0.2045665016788405</v>
+        <v>0.3627389071221359</v>
       </c>
       <c r="H24">
-        <v>0.1729184275646674</v>
+        <v>0.0007438571190607757</v>
       </c>
       <c r="I24">
-        <v>0.1177349052364711</v>
+        <v>0.003412781073135918</v>
       </c>
       <c r="J24">
-        <v>0.09461681274737543</v>
+        <v>0.2751147536014713</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2719961387462995</v>
       </c>
       <c r="L24">
-        <v>0.8316517211791563</v>
+        <v>0.07992726544384965</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.7349431244541336</v>
       </c>
       <c r="O24">
-        <v>0.7468468182754435</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.9388755954740446</v>
+      </c>
+      <c r="Q24">
+        <v>1.295105628767516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.120513055880224</v>
+        <v>2.698936272483365</v>
       </c>
       <c r="C25">
-        <v>0.4934377051957028</v>
+        <v>0.3997809944740993</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1143733231766966</v>
+        <v>0.1570821596006766</v>
       </c>
       <c r="F25">
-        <v>0.7999882865938872</v>
+        <v>1.065474334001536</v>
       </c>
       <c r="G25">
-        <v>0.1868153292456043</v>
+        <v>0.3223679064366038</v>
       </c>
       <c r="H25">
-        <v>0.1762462669735427</v>
+        <v>1.771373285075484E-05</v>
       </c>
       <c r="I25">
-        <v>0.1374541926517114</v>
+        <v>0.001825529044805485</v>
       </c>
       <c r="J25">
-        <v>0.08006844797353097</v>
+        <v>0.2631031782386017</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.269710397832398</v>
       </c>
       <c r="L25">
-        <v>0.6960840411256157</v>
+        <v>0.06795935870762193</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.6196953576008752</v>
       </c>
       <c r="O25">
-        <v>0.7155163774018263</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.9165853859797579</v>
+      </c>
+      <c r="Q25">
+        <v>1.183904636773264</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.277418120073094</v>
+        <v>2.228041412051425</v>
       </c>
       <c r="C2">
-        <v>0.3637916894935813</v>
+        <v>0.3640923868374557</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1464068959320954</v>
+        <v>0.1433470609498464</v>
       </c>
       <c r="F2">
-        <v>0.9779286332298227</v>
+        <v>0.9500929945018726</v>
       </c>
       <c r="G2">
-        <v>0.2968747489833916</v>
+        <v>0.2623517024824125</v>
       </c>
       <c r="H2">
-        <v>0.0001836076315639978</v>
+        <v>0.0001429943684105872</v>
       </c>
       <c r="I2">
-        <v>0.0005984223494692742</v>
+        <v>0.0007832908628948587</v>
       </c>
       <c r="J2">
-        <v>0.2566189639518939</v>
+        <v>0.2879080333838999</v>
       </c>
       <c r="K2">
-        <v>0.2712980709856794</v>
+        <v>0.2534428091947625</v>
       </c>
       <c r="L2">
-        <v>0.05865320325448664</v>
+        <v>0.1415513285628514</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05920774337176482</v>
       </c>
       <c r="N2">
-        <v>0.5329391430153834</v>
+        <v>0.0609487144997054</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.898561488482521</v>
+        <v>0.5494476802114008</v>
       </c>
       <c r="Q2">
-        <v>1.115918379445191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.9132451570356181</v>
+      </c>
+      <c r="S2">
+        <v>1.062117356407072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.985243648606797</v>
+        <v>1.947247491365545</v>
       </c>
       <c r="C3">
-        <v>0.3410949181575234</v>
+        <v>0.3369168543684395</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1390046384748622</v>
+        <v>0.1364224165113654</v>
       </c>
       <c r="F3">
-        <v>0.9175048655351858</v>
+        <v>0.894062834485581</v>
       </c>
       <c r="G3">
-        <v>0.2787239783288413</v>
+        <v>0.2469253266296505</v>
       </c>
       <c r="H3">
-        <v>0.000689065682016321</v>
+        <v>0.000576365017985081</v>
       </c>
       <c r="I3">
-        <v>0.0004185165365213628</v>
+        <v>0.0005372156601346489</v>
       </c>
       <c r="J3">
-        <v>0.2519106003587837</v>
+        <v>0.2827345168416144</v>
       </c>
       <c r="K3">
-        <v>0.2716602319390446</v>
+        <v>0.2552199498972172</v>
       </c>
       <c r="L3">
-        <v>0.05262620326148237</v>
+        <v>0.1460645625232004</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05731261416299915</v>
       </c>
       <c r="N3">
-        <v>0.4756274617177496</v>
+        <v>0.05417739574146552</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8899297198966778</v>
+        <v>0.4898448252224057</v>
       </c>
       <c r="Q3">
-        <v>1.067318176770044</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.897730797196779</v>
+      </c>
+      <c r="S3">
+        <v>1.021408233657581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.805069960195539</v>
+        <v>1.773809801011311</v>
       </c>
       <c r="C4">
-        <v>0.3271796262916666</v>
+        <v>0.3203346098840285</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1344503957458976</v>
+        <v>0.1321603495898955</v>
       </c>
       <c r="F4">
-        <v>0.880975794173807</v>
+        <v>0.8601114963480896</v>
       </c>
       <c r="G4">
-        <v>0.2678688465314281</v>
+        <v>0.2377235632810084</v>
       </c>
       <c r="H4">
-        <v>0.001179753501665992</v>
+        <v>0.001004477373312218</v>
       </c>
       <c r="I4">
-        <v>0.0004577860424346269</v>
+        <v>0.0005154275515937279</v>
       </c>
       <c r="J4">
-        <v>0.2492346542169699</v>
+        <v>0.2796251396905163</v>
       </c>
       <c r="K4">
-        <v>0.2721117012828707</v>
+        <v>0.2564711005518561</v>
       </c>
       <c r="L4">
-        <v>0.04892611254187074</v>
+        <v>0.1489474126472849</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05666263635581714</v>
       </c>
       <c r="N4">
-        <v>0.4405390086184013</v>
+        <v>0.05003574479558637</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8853055454062115</v>
+        <v>0.453406336305747</v>
       </c>
       <c r="Q4">
-        <v>1.038533979745054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8889684164860796</v>
+      </c>
+      <c r="S4">
+        <v>0.9971653924324215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.730515331053766</v>
+        <v>1.70193698708735</v>
       </c>
       <c r="C5">
-        <v>0.3218111482200499</v>
+        <v>0.3139215087080345</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1325611599802414</v>
+        <v>0.1303901428890768</v>
       </c>
       <c r="F5">
-        <v>0.8657701470807453</v>
+        <v>0.8459278004754367</v>
       </c>
       <c r="G5">
-        <v>0.2632195389848988</v>
+        <v>0.2337505977394869</v>
       </c>
       <c r="H5">
-        <v>0.001424283861559239</v>
+        <v>0.001219019092007501</v>
       </c>
       <c r="I5">
-        <v>0.0005758552829098207</v>
+        <v>0.0006164082983888264</v>
       </c>
       <c r="J5">
-        <v>0.2480448209068697</v>
+        <v>0.2782176697411742</v>
       </c>
       <c r="K5">
-        <v>0.2721141411666927</v>
+        <v>0.2567913149150058</v>
       </c>
       <c r="L5">
-        <v>0.04746843737304118</v>
+        <v>0.1500284169348767</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05647449513604386</v>
       </c>
       <c r="N5">
-        <v>0.4264961042529194</v>
+        <v>0.04840440007821201</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8839629612385949</v>
+        <v>0.4388329579371089</v>
       </c>
       <c r="Q5">
-        <v>1.026115434712182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.885983039760454</v>
+      </c>
+      <c r="S5">
+        <v>0.9865356881878142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.716978375440419</v>
+        <v>1.688839710477282</v>
       </c>
       <c r="C6">
-        <v>0.321286849312358</v>
+        <v>0.3132514696937108</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1322098322243299</v>
+        <v>0.1300587878535744</v>
       </c>
       <c r="F6">
-        <v>0.8626952838699538</v>
+        <v>0.843021947735302</v>
       </c>
       <c r="G6">
-        <v>0.2620918698773096</v>
+        <v>0.2327445595380411</v>
       </c>
       <c r="H6">
-        <v>0.001468977776681646</v>
+        <v>0.001258337265526488</v>
       </c>
       <c r="I6">
-        <v>0.0006859504826008944</v>
+        <v>0.0007403451400094241</v>
       </c>
       <c r="J6">
-        <v>0.2476650457797049</v>
+        <v>0.277793524997449</v>
       </c>
       <c r="K6">
-        <v>0.2718281687381356</v>
+        <v>0.2565680870682954</v>
       </c>
       <c r="L6">
-        <v>0.04728839435541943</v>
+        <v>0.1500613975398011</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0563875081796601</v>
       </c>
       <c r="N6">
-        <v>0.4244516829973577</v>
+        <v>0.04819877269189377</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8842126562560821</v>
+        <v>0.4367078513099472</v>
       </c>
       <c r="Q6">
-        <v>1.02291746724444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8859875324957116</v>
+      </c>
+      <c r="S6">
+        <v>0.9836457309093021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.800926790485335</v>
+        <v>1.768533634687628</v>
       </c>
       <c r="C7">
-        <v>0.32811385528899</v>
+        <v>0.3208780588545181</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1343229004722346</v>
+        <v>0.1321375530397724</v>
       </c>
       <c r="F7">
-        <v>0.8792458230072597</v>
+        <v>0.8577550879109594</v>
       </c>
       <c r="G7">
-        <v>0.2668227343039362</v>
+        <v>0.2392190380096366</v>
       </c>
       <c r="H7">
-        <v>0.00118650451426805</v>
+        <v>0.001012203865312644</v>
       </c>
       <c r="I7">
-        <v>0.0006855382420170031</v>
+        <v>0.0007869029143767747</v>
       </c>
       <c r="J7">
-        <v>0.2487125679669759</v>
+        <v>0.2753592932130857</v>
       </c>
       <c r="K7">
-        <v>0.2713209889018628</v>
+        <v>0.2554434617690973</v>
       </c>
       <c r="L7">
-        <v>0.04907642980768401</v>
+        <v>0.1484273745225835</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05640979507035482</v>
       </c>
       <c r="N7">
-        <v>0.4411324427941707</v>
+        <v>0.05027026619598729</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8865637849942871</v>
+        <v>0.454121425247763</v>
       </c>
       <c r="Q7">
-        <v>1.035221427146169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8907913812587509</v>
+      </c>
+      <c r="S7">
+        <v>0.9917718533446589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.172641150747154</v>
+        <v>2.123338176275297</v>
       </c>
       <c r="C8">
-        <v>0.3573134812299799</v>
+        <v>0.3546439756442226</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1437222404723109</v>
+        <v>0.1411734522981476</v>
       </c>
       <c r="F8">
-        <v>0.9549532481261025</v>
+        <v>0.9265296335534288</v>
       </c>
       <c r="G8">
-        <v>0.2892503278292295</v>
+        <v>0.2641121446427803</v>
       </c>
       <c r="H8">
-        <v>0.0003215841991421886</v>
+        <v>0.0002624454921831276</v>
       </c>
       <c r="I8">
-        <v>0.0007753989157261998</v>
+        <v>0.0009942869296768464</v>
       </c>
       <c r="J8">
-        <v>0.2542819444385955</v>
+        <v>0.2732877357899923</v>
       </c>
       <c r="K8">
-        <v>0.2703327685567594</v>
+        <v>0.2521374115940027</v>
       </c>
       <c r="L8">
-        <v>0.05680207472358489</v>
+        <v>0.1422001938461861</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05789843449998244</v>
       </c>
       <c r="N8">
-        <v>0.5141980839732128</v>
+        <v>0.0591147072028626</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8971890088962198</v>
+        <v>0.5303027085621039</v>
       </c>
       <c r="Q8">
-        <v>1.094771756498716</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.9113663328345751</v>
+      </c>
+      <c r="S8">
+        <v>1.036707159657738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.901205837165946</v>
+        <v>2.820879323772544</v>
       </c>
       <c r="C9">
-        <v>0.4130011665356079</v>
+        <v>0.4214351495046458</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1622820809483798</v>
+        <v>0.1586339521699003</v>
       </c>
       <c r="F9">
-        <v>1.111031920744566</v>
+        <v>1.070343155185071</v>
       </c>
       <c r="G9">
-        <v>0.3375032934972921</v>
+        <v>0.3078024935088024</v>
       </c>
       <c r="H9">
-        <v>0.0001487792027159429</v>
+        <v>0.0001527227265420983</v>
       </c>
       <c r="I9">
-        <v>0.001885803308463885</v>
+        <v>0.002085256349731779</v>
       </c>
       <c r="J9">
-        <v>0.2679026967905997</v>
+        <v>0.2838595409912941</v>
       </c>
       <c r="K9">
-        <v>0.2717147537473075</v>
+        <v>0.2493225872839027</v>
       </c>
       <c r="L9">
-        <v>0.0716748409090826</v>
+        <v>0.1320087563256944</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.06557208547680027</v>
       </c>
       <c r="N9">
-        <v>0.6570197801110425</v>
+        <v>0.07600486159983433</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9212442982682347</v>
+        <v>0.6792409247222082</v>
       </c>
       <c r="Q9">
-        <v>1.22620160022808</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.9535969899547752</v>
+      </c>
+      <c r="S9">
+        <v>1.144636505450265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.418800774985186</v>
+        <v>3.308476861580118</v>
       </c>
       <c r="C10">
-        <v>0.4575893901861434</v>
+        <v>0.4717453380672509</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1715620566260014</v>
+        <v>0.1677930615138656</v>
       </c>
       <c r="F10">
-        <v>1.212191309957916</v>
+        <v>1.158951098138388</v>
       </c>
       <c r="G10">
-        <v>0.3700098997309027</v>
+        <v>0.3525294680739961</v>
       </c>
       <c r="H10">
-        <v>0.001196860648992271</v>
+        <v>0.001131925912492893</v>
       </c>
       <c r="I10">
-        <v>0.003678868087359177</v>
+        <v>0.003745157511673369</v>
       </c>
       <c r="J10">
-        <v>0.2767492786348384</v>
+        <v>0.2699437965303986</v>
       </c>
       <c r="K10">
-        <v>0.2707733448450789</v>
+        <v>0.2439245348675314</v>
       </c>
       <c r="L10">
-        <v>0.08475639575232918</v>
+        <v>0.1235658691657893</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07203621761247092</v>
       </c>
       <c r="N10">
-        <v>0.7443697239082923</v>
+        <v>0.09122206100673935</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9490745993128797</v>
+        <v>0.771440134541038</v>
       </c>
       <c r="Q10">
-        <v>1.314051907044927</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.9985826500794275</v>
+      </c>
+      <c r="S10">
+        <v>1.202728123843912</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.537306606870288</v>
+        <v>3.411705242753101</v>
       </c>
       <c r="C11">
-        <v>0.505929651434144</v>
+        <v>0.5162855299927855</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1416683272223231</v>
+        <v>0.139221545532255</v>
       </c>
       <c r="F11">
-        <v>1.11788689999733</v>
+        <v>1.060560573353882</v>
       </c>
       <c r="G11">
-        <v>0.3467967335706561</v>
+        <v>0.3641738055291199</v>
       </c>
       <c r="H11">
-        <v>0.01976390737392464</v>
+        <v>0.01966689730349813</v>
       </c>
       <c r="I11">
-        <v>0.00470156372315067</v>
+        <v>0.004774177743395391</v>
       </c>
       <c r="J11">
-        <v>0.2618246620090048</v>
+        <v>0.2203047965413134</v>
       </c>
       <c r="K11">
-        <v>0.2453095083740351</v>
+        <v>0.2184541577865957</v>
       </c>
       <c r="L11">
-        <v>0.1107935014538555</v>
+        <v>0.1120703769807712</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.06554671092834496</v>
       </c>
       <c r="N11">
-        <v>0.6293713228464242</v>
+        <v>0.1199820096496751</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1.01788042684386</v>
+        <v>0.6546573682542061</v>
       </c>
       <c r="Q11">
-        <v>1.233747967196848</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.081313709125595</v>
+      </c>
+      <c r="S11">
+        <v>1.103039425265706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.531167473152891</v>
+        <v>3.403626682663287</v>
       </c>
       <c r="C12">
-        <v>0.5374470762976387</v>
+        <v>0.5443500646347559</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1191298969600538</v>
+        <v>0.1171701172491808</v>
       </c>
       <c r="F12">
-        <v>1.021784163486615</v>
+        <v>0.9662651698100149</v>
       </c>
       <c r="G12">
-        <v>0.3221144445949591</v>
+        <v>0.3558544052677917</v>
       </c>
       <c r="H12">
-        <v>0.05831401595567343</v>
+        <v>0.05821542083613451</v>
       </c>
       <c r="I12">
-        <v>0.004772638726878498</v>
+        <v>0.00481900998278384</v>
       </c>
       <c r="J12">
-        <v>0.2481367020243397</v>
+        <v>0.1966294553404708</v>
       </c>
       <c r="K12">
-        <v>0.2260357910512667</v>
+        <v>0.2010988198419525</v>
       </c>
       <c r="L12">
-        <v>0.132797854323627</v>
+        <v>0.1054390019401374</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.05954328406606635</v>
       </c>
       <c r="N12">
-        <v>0.521877837612621</v>
+        <v>0.143557596615608</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1.071772966778383</v>
+        <v>0.5441993704730521</v>
       </c>
       <c r="Q12">
-        <v>1.152813066562175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.141032969011604</v>
+      </c>
+      <c r="S12">
+        <v>1.020499447783422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.423839794349362</v>
+        <v>3.3076697494011</v>
       </c>
       <c r="C13">
-        <v>0.5591050884241042</v>
+        <v>0.5644331501562476</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1008124010909217</v>
+        <v>0.09879413359404232</v>
       </c>
       <c r="F13">
-        <v>0.9165941766420218</v>
+        <v>0.8684403964463741</v>
       </c>
       <c r="G13">
-        <v>0.2932912563111643</v>
+        <v>0.3236266249445521</v>
       </c>
       <c r="H13">
-        <v>0.1138250551993423</v>
+        <v>0.1137492160234643</v>
       </c>
       <c r="I13">
-        <v>0.0044294248062835</v>
+        <v>0.004511572711447087</v>
       </c>
       <c r="J13">
-        <v>0.2337739917485067</v>
+        <v>0.1912700322122518</v>
       </c>
       <c r="K13">
-        <v>0.2091210658685334</v>
+        <v>0.187975987630093</v>
       </c>
       <c r="L13">
-        <v>0.1529934345623616</v>
+        <v>0.1013239096790599</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.05349042206876042</v>
       </c>
       <c r="N13">
-        <v>0.4157562651106161</v>
+        <v>0.1639784872500698</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.118387389168348</v>
+        <v>0.4340647880546697</v>
       </c>
       <c r="Q13">
-        <v>1.061607466824682</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.18514844587591</v>
+      </c>
+      <c r="S13">
+        <v>0.9450766554483891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.302321107359717</v>
+        <v>3.199811267087114</v>
       </c>
       <c r="C14">
-        <v>0.5702076927505573</v>
+        <v>0.5753729494566358</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09056137031934419</v>
+        <v>0.08840823609188497</v>
       </c>
       <c r="F14">
-        <v>0.8395140010878634</v>
+        <v>0.7985460744759649</v>
       </c>
       <c r="G14">
-        <v>0.2712206134587305</v>
+        <v>0.2914469770781665</v>
       </c>
       <c r="H14">
-        <v>0.1629727876266003</v>
+        <v>0.1629194585592728</v>
       </c>
       <c r="I14">
-        <v>0.004094326641458146</v>
+        <v>0.004240327072914774</v>
       </c>
       <c r="J14">
-        <v>0.2233792613484908</v>
+        <v>0.1943178433243418</v>
       </c>
       <c r="K14">
-        <v>0.198375905541333</v>
+        <v>0.1804882125572966</v>
       </c>
       <c r="L14">
-        <v>0.1666223888137708</v>
+        <v>0.09935975365911176</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04929762398806403</v>
       </c>
       <c r="N14">
-        <v>0.3441901949318407</v>
+        <v>0.1770369881851721</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.148261728472235</v>
+        <v>0.3594140120444962</v>
       </c>
       <c r="Q14">
-        <v>0.9929972745537441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.209274115122071</v>
+      </c>
+      <c r="S14">
+        <v>0.8942353665927101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.250333673074579</v>
+        <v>3.153632214018899</v>
       </c>
       <c r="C15">
-        <v>0.5710437994869153</v>
+        <v>0.5766108030369992</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0883807234842422</v>
+        <v>0.08617705488032268</v>
       </c>
       <c r="F15">
-        <v>0.8181646040572872</v>
+        <v>0.7798529559320144</v>
       </c>
       <c r="G15">
-        <v>0.2646445703679277</v>
+        <v>0.2792792138731173</v>
       </c>
       <c r="H15">
-        <v>0.1753951888422876</v>
+        <v>0.1753512704375595</v>
       </c>
       <c r="I15">
-        <v>0.004035434875275357</v>
+        <v>0.004230514160139975</v>
       </c>
       <c r="J15">
-        <v>0.2205526302341667</v>
+        <v>0.197992173229153</v>
       </c>
       <c r="K15">
-        <v>0.1959548231208643</v>
+        <v>0.1791519432855502</v>
       </c>
       <c r="L15">
-        <v>0.1692229088848549</v>
+        <v>0.09919444591671933</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04818340328806769</v>
       </c>
       <c r="N15">
-        <v>0.3262177028920519</v>
+        <v>0.179199551831374</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.154031311537565</v>
+        <v>0.3405394312877803</v>
       </c>
       <c r="Q15">
-        <v>0.9731061250300712</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.211980979322519</v>
+      </c>
+      <c r="S15">
+        <v>0.8816080789053728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.050033867488537</v>
+        <v>2.974518728184592</v>
       </c>
       <c r="C16">
-        <v>0.5471552968940898</v>
+        <v>0.5557647529210215</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08845795949067004</v>
+        <v>0.08605051621934656</v>
       </c>
       <c r="F16">
-        <v>0.7968976887807457</v>
+        <v>0.7665695329727455</v>
       </c>
       <c r="G16">
-        <v>0.2561285017787327</v>
+        <v>0.2453852607251363</v>
       </c>
       <c r="H16">
-        <v>0.1622369982452767</v>
+        <v>0.1622262775672141</v>
       </c>
       <c r="I16">
-        <v>0.003420464273019341</v>
+        <v>0.003733913676276401</v>
       </c>
       <c r="J16">
-        <v>0.2193505883855948</v>
+        <v>0.2258465611884688</v>
       </c>
       <c r="K16">
-        <v>0.1993077965370382</v>
+        <v>0.1849905360152775</v>
       </c>
       <c r="L16">
-        <v>0.1589227353514744</v>
+        <v>0.1027457964626901</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04774215391920045</v>
       </c>
       <c r="N16">
-        <v>0.3134851758870383</v>
+        <v>0.1664816884313822</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.130306605629031</v>
+        <v>0.3262175042905113</v>
       </c>
       <c r="Q16">
-        <v>0.9523635878292396</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.174159609473406</v>
+      </c>
+      <c r="S16">
+        <v>0.8857994855337239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.960755227558707</v>
+        <v>2.892383616451696</v>
       </c>
       <c r="C17">
-        <v>0.5230290484722389</v>
+        <v>0.5330014262671341</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09349363229696195</v>
+        <v>0.09090260293349317</v>
       </c>
       <c r="F17">
-        <v>0.8209778647087944</v>
+        <v>0.792542941155439</v>
       </c>
       <c r="G17">
-        <v>0.2612470054414544</v>
+        <v>0.2394537836210731</v>
       </c>
       <c r="H17">
-        <v>0.1242533650057851</v>
+        <v>0.1242515614994204</v>
       </c>
       <c r="I17">
-        <v>0.003159073995679051</v>
+        <v>0.003524968634529557</v>
       </c>
       <c r="J17">
-        <v>0.2239456695510071</v>
+        <v>0.2436210370933196</v>
       </c>
       <c r="K17">
-        <v>0.2075024515992396</v>
+        <v>0.1933161377152235</v>
       </c>
       <c r="L17">
-        <v>0.1436611211877192</v>
+        <v>0.1067390465546634</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04940447035325946</v>
       </c>
       <c r="N17">
-        <v>0.3404495686755808</v>
+        <v>0.1500564288962991</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.096623407431352</v>
+        <v>0.3535448758869535</v>
       </c>
       <c r="Q17">
-        <v>0.972733921886757</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.134396502588515</v>
+      </c>
+      <c r="S17">
+        <v>0.9138987148214994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.958790327132988</v>
+        <v>2.889226856197183</v>
       </c>
       <c r="C18">
-        <v>0.4955917734109221</v>
+        <v>0.5066801530105352</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1056911733554138</v>
+        <v>0.102764900759885</v>
       </c>
       <c r="F18">
-        <v>0.889526588433796</v>
+        <v>0.8591580944958253</v>
       </c>
       <c r="G18">
-        <v>0.2795899490175628</v>
+        <v>0.2515439353673941</v>
       </c>
       <c r="H18">
-        <v>0.07139430606972752</v>
+        <v>0.07139411230047443</v>
       </c>
       <c r="I18">
-        <v>0.002869805109297907</v>
+        <v>0.003201950894712091</v>
       </c>
       <c r="J18">
-        <v>0.2344561426696004</v>
+        <v>0.2592507117520526</v>
       </c>
       <c r="K18">
-        <v>0.2217466039375466</v>
+        <v>0.2060438123557802</v>
       </c>
       <c r="L18">
-        <v>0.1235156734599272</v>
+        <v>0.1121000816722049</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0534017292320037</v>
       </c>
       <c r="N18">
-        <v>0.4092168935969198</v>
+        <v>0.129319316673552</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1.050584891668024</v>
+        <v>0.4242692431431152</v>
       </c>
       <c r="Q18">
-        <v>1.033577660213666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.086443591160091</v>
+      </c>
+      <c r="S18">
+        <v>0.9727586777418082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.020867029654653</v>
+        <v>2.944630009924595</v>
       </c>
       <c r="C19">
-        <v>0.4708121931794267</v>
+        <v>0.4832481577892622</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1261196261555355</v>
+        <v>0.1227057602727122</v>
       </c>
       <c r="F19">
-        <v>0.9896863283194364</v>
+        <v>0.954709409830528</v>
       </c>
       <c r="G19">
-        <v>0.3061854007626934</v>
+        <v>0.2740164898300961</v>
       </c>
       <c r="H19">
-        <v>0.02628748812347226</v>
+        <v>0.02628543749924717</v>
       </c>
       <c r="I19">
-        <v>0.003087616493508527</v>
+        <v>0.003435616773591832</v>
       </c>
       <c r="J19">
-        <v>0.2483265764329943</v>
+        <v>0.2735575309912264</v>
       </c>
       <c r="K19">
-        <v>0.2394940012948297</v>
+        <v>0.2211557778072901</v>
       </c>
       <c r="L19">
-        <v>0.1033064645663444</v>
+        <v>0.1180411268965642</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05888997136162111</v>
       </c>
       <c r="N19">
-        <v>0.5158665203551323</v>
+        <v>0.108797489051156</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1.003258629504515</v>
+        <v>0.5341975704600941</v>
       </c>
       <c r="Q19">
-        <v>1.118998798547267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.039793769952141</v>
+      </c>
+      <c r="S19">
+        <v>1.050015399261738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.272543785188304</v>
+        <v>3.174643335926817</v>
       </c>
       <c r="C20">
-        <v>0.4492916694737659</v>
+        <v>0.4639302794862203</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1686363390501064</v>
+        <v>0.1645262236431151</v>
       </c>
       <c r="F20">
-        <v>1.179971928615998</v>
+        <v>1.132480689934155</v>
       </c>
       <c r="G20">
-        <v>0.3580960812462877</v>
+        <v>0.3281110113742898</v>
       </c>
       <c r="H20">
-        <v>0.0008216650800454417</v>
+        <v>0.0007877379372196458</v>
       </c>
       <c r="I20">
-        <v>0.003854385681330896</v>
+        <v>0.00413796724135107</v>
       </c>
       <c r="J20">
-        <v>0.2726899944875214</v>
+        <v>0.2842583660929705</v>
       </c>
       <c r="K20">
-        <v>0.268399701231651</v>
+        <v>0.2438880689005671</v>
       </c>
       <c r="L20">
-        <v>0.08195173842819514</v>
+        <v>0.1252060812413234</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.069650473035896</v>
       </c>
       <c r="N20">
-        <v>0.723079981254827</v>
+        <v>0.0875877908196756</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9461440663670686</v>
+        <v>0.7485020478894882</v>
       </c>
       <c r="Q20">
-        <v>1.280188066774741</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.9893639726988823</v>
+      </c>
+      <c r="S20">
+        <v>1.18490607304355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.690237114152183</v>
+        <v>3.543870333185964</v>
       </c>
       <c r="C21">
-        <v>0.4785690954258683</v>
+        <v>0.4889039168237446</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1824869270484264</v>
+        <v>0.1802731616390538</v>
       </c>
       <c r="F21">
-        <v>1.284982204372824</v>
+        <v>1.213934256418142</v>
       </c>
       <c r="G21">
-        <v>0.3910090556654637</v>
+        <v>0.4219284257670211</v>
       </c>
       <c r="H21">
-        <v>0.001848571673100152</v>
+        <v>0.001684132496050594</v>
       </c>
       <c r="I21">
-        <v>0.005460512858300959</v>
+        <v>0.005491769285338677</v>
       </c>
       <c r="J21">
-        <v>0.2835540164729906</v>
+        <v>0.2200695310849241</v>
       </c>
       <c r="K21">
-        <v>0.2731010477162279</v>
+        <v>0.239356487739915</v>
       </c>
       <c r="L21">
-        <v>0.08879538418814548</v>
+        <v>0.1188769122854207</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07493754737689073</v>
       </c>
       <c r="N21">
-        <v>0.8189436927256679</v>
+        <v>0.09759815646922476</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9591474000773985</v>
+        <v>0.8512957922810926</v>
       </c>
       <c r="Q21">
-        <v>1.373022365146369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.027158795892944</v>
+      </c>
+      <c r="S21">
+        <v>1.211256164175978</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.960497257519648</v>
+        <v>3.780371180337397</v>
       </c>
       <c r="C22">
-        <v>0.4978734174853514</v>
+        <v>0.5045774860203665</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1894870877664481</v>
+        <v>0.1888230008397507</v>
       </c>
       <c r="F22">
-        <v>1.348140297167404</v>
+        <v>1.260740762927583</v>
       </c>
       <c r="G22">
-        <v>0.4120538307025612</v>
+        <v>0.4915000551327893</v>
       </c>
       <c r="H22">
-        <v>0.002806045050495976</v>
+        <v>0.002518823939255621</v>
       </c>
       <c r="I22">
-        <v>0.006411067346041577</v>
+        <v>0.006164810495318918</v>
       </c>
       <c r="J22">
-        <v>0.2904817866412799</v>
+        <v>0.1837659116732837</v>
       </c>
       <c r="K22">
-        <v>0.275999247841952</v>
+        <v>0.2358623864257083</v>
       </c>
       <c r="L22">
-        <v>0.09408593451638581</v>
+        <v>0.1147186651684606</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.07844378055150258</v>
       </c>
       <c r="N22">
-        <v>0.8712082963136538</v>
+        <v>0.1051703050806339</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.9694654319790885</v>
+        <v>0.9080575276586842</v>
       </c>
       <c r="Q22">
-        <v>1.432338744347788</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.054925600582365</v>
+      </c>
+      <c r="S22">
+        <v>1.223726640406397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.820139758481332</v>
+        <v>3.661301234222094</v>
       </c>
       <c r="C23">
-        <v>0.4862974692194086</v>
+        <v>0.496073136823469</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1858672572643947</v>
+        <v>0.1840624450945967</v>
       </c>
       <c r="F23">
-        <v>1.316154196661984</v>
+        <v>1.239207704577098</v>
       </c>
       <c r="G23">
-        <v>0.4019427211052147</v>
+        <v>0.447368679909502</v>
       </c>
       <c r="H23">
-        <v>0.002276788865251511</v>
+        <v>0.002062454866455621</v>
       </c>
       <c r="I23">
-        <v>0.005612086558240748</v>
+        <v>0.005462361117986703</v>
       </c>
       <c r="J23">
-        <v>0.2873488890492553</v>
+        <v>0.2088657403317669</v>
       </c>
       <c r="K23">
-        <v>0.2753371392509294</v>
+        <v>0.2392054402553931</v>
       </c>
       <c r="L23">
-        <v>0.091050922103598</v>
+        <v>0.1174072545513827</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07718699051090638</v>
       </c>
       <c r="N23">
-        <v>0.8423452360814281</v>
+        <v>0.1006600265809681</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.9621841717873139</v>
+        <v>0.8764362586311165</v>
       </c>
       <c r="Q23">
-        <v>1.404239607314679</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1.036475659551499</v>
+      </c>
+      <c r="S23">
+        <v>1.226089930785179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.281535732691509</v>
+        <v>3.183191651958793</v>
       </c>
       <c r="C24">
-        <v>0.4446306174464212</v>
+        <v>0.4591790986825117</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1719967260608577</v>
+        <v>0.1678125824197672</v>
       </c>
       <c r="F24">
-        <v>1.193868871321982</v>
+        <v>1.145918618671544</v>
       </c>
       <c r="G24">
-        <v>0.3627389071221359</v>
+        <v>0.3319175955999185</v>
       </c>
       <c r="H24">
-        <v>0.0007438571190607757</v>
+        <v>0.0007087626537503056</v>
       </c>
       <c r="I24">
-        <v>0.003412781073135918</v>
+        <v>0.003594923561471397</v>
       </c>
       <c r="J24">
-        <v>0.2751147536014713</v>
+        <v>0.2871456694710375</v>
       </c>
       <c r="K24">
-        <v>0.2719961387462995</v>
+        <v>0.2470958858254733</v>
       </c>
       <c r="L24">
-        <v>0.07992726544384965</v>
+        <v>0.1264638300929892</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.07080885140513971</v>
       </c>
       <c r="N24">
-        <v>0.7349431244541336</v>
+        <v>0.08545047069087275</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9388755954740446</v>
+        <v>0.7606946293515335</v>
       </c>
       <c r="Q24">
-        <v>1.295105628767516</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.9816748151740313</v>
+      </c>
+      <c r="S24">
+        <v>1.199028944515305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.698936272483365</v>
+        <v>2.628959839488118</v>
       </c>
       <c r="C25">
-        <v>0.3997809944740993</v>
+        <v>0.4059720693856264</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1570821596006766</v>
+        <v>0.153584268802895</v>
       </c>
       <c r="F25">
-        <v>1.065474334001536</v>
+        <v>1.029164447604018</v>
       </c>
       <c r="G25">
-        <v>0.3223679064366038</v>
+        <v>0.2903156395457245</v>
       </c>
       <c r="H25">
-        <v>1.771373285075484E-05</v>
+        <v>2.323205630938574E-05</v>
       </c>
       <c r="I25">
-        <v>0.001825529044805485</v>
+        <v>0.0021390195415254</v>
       </c>
       <c r="J25">
-        <v>0.2631031782386017</v>
+        <v>0.2851670826324764</v>
       </c>
       <c r="K25">
-        <v>0.269710397832398</v>
+        <v>0.2489917833049446</v>
       </c>
       <c r="L25">
-        <v>0.06795935870762193</v>
+        <v>0.1342860599841416</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.06272146875860685</v>
       </c>
       <c r="N25">
-        <v>0.6196953576008752</v>
+        <v>0.07163559386255969</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9165853859797579</v>
+        <v>0.6400923630551745</v>
       </c>
       <c r="Q25">
-        <v>1.183904636773264</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9433450417804181</v>
+      </c>
+      <c r="S25">
+        <v>1.112219007015312</v>
       </c>
     </row>
   </sheetData>
